--- a/df.xlsx
+++ b/df.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X49"/>
+  <dimension ref="A1:Z49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,85 +472,95 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>mezz_accrued_interest</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>upfrontfee_paid</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>nonuse_fee</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>loan_book</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>lender_balance</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>interest_expected</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>amort_expected</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>amort_received</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>interest_received</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>payments_received</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>borrower_balance</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>mezz_balance</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>origination_cum</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>amort_cum</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>servicing_fee</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>messages</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>default_rate</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>interest_charge</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>current_ar</t>
         </is>
@@ -575,62 +585,68 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-9839923.785794936</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3240000</v>
+        <v>108031.0664452329</v>
       </c>
       <c r="I2" t="n">
         <v>3240000</v>
       </c>
       <c r="J2" t="n">
+        <v>3240000</v>
+      </c>
+      <c r="K2" t="n">
         <v>9256925.102271244</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>6017001.316476308</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>400000</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>255868.3133986898</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>243074.8977287553</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>380000</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>623074.8977287554</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>9839923.785794936</v>
       </c>
-      <c r="R2" t="n">
+      <c r="T2" t="n">
         <v>10000000</v>
       </c>
-      <c r="S2" t="n">
+      <c r="U2" t="n">
         <v>243074.8977287553</v>
       </c>
-      <c r="T2" t="n">
+      <c r="V2" t="n">
         <v>18692.24693186266</v>
       </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> [Closing Date] [BELOW MIN UTIL LEVEL] [NEGATIVE CASH] [MARGIN CALL] </t>
-        </is>
-      </c>
-      <c r="V2" t="n">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> [Closing Date] [BELOW MIN UTIL LEVEL] [NEGATIVE CASH] [MEZZ TAPPED] </t>
+        </is>
+      </c>
+      <c r="X2" t="n">
         <v>0.04999999999999993</v>
       </c>
-      <c r="W2" t="n">
+      <c r="Y2" t="n">
         <v>0.00643403011000343</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Z2" t="n">
         <v>0.65</v>
       </c>
     </row>
@@ -653,62 +669,68 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>-8298566.211019477</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>38713.56764213884</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>307170.8627199605</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>3240000</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>23909290.11820223</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>15541038.57683145</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>1036573.77810235</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>679847.5527069869</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>644119.7204242378</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>982203.1418007279</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>1626322.862224966</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>18138489.99681441</v>
       </c>
-      <c r="R3" t="n">
+      <c r="T3" t="n">
         <v>26170212.76595744</v>
       </c>
-      <c r="S3" t="n">
+      <c r="U3" t="n">
         <v>887194.6181529931</v>
       </c>
-      <c r="T3" t="n">
+      <c r="V3" t="n">
         <v>48789.68586674897</v>
       </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[BELOW MIN UTIL LEVEL] [NEGATIVE CASH] [MARGIN CALL] </t>
-        </is>
-      </c>
-      <c r="V3" t="n">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[BELOW MIN UTIL LEVEL] [NEGATIVE CASH] [MEZZ TAPPED] </t>
+        </is>
+      </c>
+      <c r="X3" t="n">
         <v>0.05249204665959695</v>
       </c>
-      <c r="W3" t="n">
+      <c r="Y3" t="n">
         <v>0.00643403011000343</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Z3" t="n">
         <v>0.65</v>
       </c>
     </row>
@@ -731,62 +753,68 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>-9774442.048500605</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>138705.0777861972</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>613622.8111407263</v>
       </c>
       <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>3240000</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>43753706.03841662</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>28439908.92497081</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>1902996.897270666</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>1278662.154961276</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>1208313.034457208</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>1798791.61096178</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>3007104.645418989</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
         <v>27912932.04531502</v>
       </c>
-      <c r="R4" t="n">
+      <c r="T4" t="n">
         <v>48510638.29787233</v>
       </c>
-      <c r="S4" t="n">
+      <c r="U4" t="n">
         <v>2095507.652610201</v>
       </c>
-      <c r="T4" t="n">
+      <c r="V4" t="n">
         <v>90213.13936256965</v>
       </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[BELOW MIN UTIL LEVEL] [NEGATIVE CASH] [MARGIN CALL] </t>
-        </is>
-      </c>
-      <c r="V4" t="n">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[BELOW MIN UTIL LEVEL] [NEGATIVE CASH] [MEZZ TAPPED] </t>
+        </is>
+      </c>
+      <c r="X4" t="n">
         <v>0.05486270022883288</v>
       </c>
-      <c r="W4" t="n">
+      <c r="Y4" t="n">
         <v>0.00643403011000343</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Z4" t="n">
         <v>0.65</v>
       </c>
     </row>
@@ -809,62 +837,68 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>-12490811.01402155</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>321688.3081352147</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1057209.524422031</v>
       </c>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>4698000</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>68581443.75373758</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>44577938.43992943</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>2992275.94298711</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>2059305.534679395</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>1940994.93962814</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>2821786.05961304</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>4762780.999241179</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
         <v>40403743.05933657</v>
       </c>
-      <c r="R5" t="n">
+      <c r="T5" t="n">
         <v>77021276.59574467</v>
       </c>
-      <c r="S5" t="n">
+      <c r="U5" t="n">
         <v>4036502.592238341</v>
       </c>
-      <c r="T5" t="n">
+      <c r="V5" t="n">
         <v>142883.4299772354</v>
       </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[BELOW MIN UTIL LEVEL] [NEGATIVE CASH] [MARGIN CALL] </t>
-        </is>
-      </c>
-      <c r="V5" t="n">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[BELOW MIN UTIL LEVEL] [NEGATIVE CASH] [MEZZ TAPPED] </t>
+        </is>
+      </c>
+      <c r="X5" t="n">
         <v>0.05717030987268812</v>
       </c>
-      <c r="W5" t="n">
+      <c r="Y5" t="n">
         <v>0.00643403011000343</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Z5" t="n">
         <v>0.65</v>
       </c>
     </row>
@@ -887,62 +921,68 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>-13537018.50118821</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>608504.1062996001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1649417.159674639</v>
       </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>4698000</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>98178267.88478999</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>63815874.12511349</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>4297137.764153125</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>3029050.842959899</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>2847671.706135406</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>4043040.96948649</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>6890712.675621897</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
         <v>53940761.56052478</v>
       </c>
-      <c r="R6" t="n">
+      <c r="T6" t="n">
         <v>111702127.6595744</v>
       </c>
-      <c r="S6" t="n">
+      <c r="U6" t="n">
         <v>6884174.298373747</v>
       </c>
-      <c r="T6" t="n">
+      <c r="V6" t="n">
         <v>206721.3802686569</v>
       </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[BELOW MIN UTIL LEVEL] [NEGATIVE CASH] [MARGIN CALL] </t>
-        </is>
-      </c>
-      <c r="V6" t="n">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[BELOW MIN UTIL LEVEL] [NEGATIVE CASH] [MEZZ TAPPED] </t>
+        </is>
+      </c>
+      <c r="X6" t="n">
         <v>0.05944099378881973</v>
       </c>
-      <c r="W6" t="n">
+      <c r="Y6" t="n">
         <v>0.00643403011000343</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Z6" t="n">
         <v>0.65</v>
       </c>
     </row>
@@ -965,62 +1005,68 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>-14376497.9736418</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>1019097.361916769</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2399462.23774183</v>
       </c>
       <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>4698000</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>132324265.8621302</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>86010772.8103846</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>5810018.283626218</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>4195462.156945284</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>3934020.524047429</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>5454239.902444066</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>9388260.426491495</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
         <v>68317259.53416657</v>
       </c>
-      <c r="R7" t="n">
+      <c r="T7" t="n">
         <v>152553191.4893617</v>
       </c>
-      <c r="S7" t="n">
+      <c r="U7" t="n">
         <v>10818194.82242118</v>
       </c>
-      <c r="T7" t="n">
+      <c r="V7" t="n">
         <v>281647.8127947449</v>
       </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[BELOW MIN UTIL LEVEL] [NEGATIVE CASH] [MARGIN CALL] </t>
-        </is>
-      </c>
-      <c r="V7" t="n">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[BELOW MIN UTIL LEVEL] [NEGATIVE CASH] [MEZZ TAPPED] </t>
+        </is>
+      </c>
+      <c r="X7" t="n">
         <v>0.06168819356012367</v>
       </c>
-      <c r="W7" t="n">
+      <c r="Y7" t="n">
         <v>0.00643403011000343</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Z7" t="n">
         <v>0.65</v>
       </c>
     </row>
@@ -1043,62 +1089,68 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>-15500773.41156343</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>1572493.263963448</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>3319688.01220776</v>
       </c>
       <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>5184000</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>170793672.1428188</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>111015886.8928322</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>7523050.861178193</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>5566406.116863743</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>5205894.366859965</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>7046890.636920368</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
         <v>12252785.00378034</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
         <v>83818032.94573</v>
       </c>
-      <c r="R8" t="n">
+      <c r="T8" t="n">
         <v>199574468.0851064</v>
       </c>
-      <c r="S8" t="n">
+      <c r="U8" t="n">
         <v>16024089.18928114</v>
       </c>
-      <c r="T8" t="n">
+      <c r="V8" t="n">
         <v>367583.55011341</v>
       </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[BELOW MIN UTIL LEVEL] [NEGATIVE CASH] [MARGIN CALL] </t>
-        </is>
-      </c>
-      <c r="V8" t="n">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[BELOW MIN UTIL LEVEL] [NEGATIVE CASH] [MEZZ TAPPED] </t>
+        </is>
+      </c>
+      <c r="X8" t="n">
         <v>0.06391953277092788</v>
       </c>
-      <c r="W8" t="n">
+      <c r="Y8" t="n">
         <v>0.00643403011000343</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Z8" t="n">
         <v>0.65</v>
       </c>
     </row>
@@ -1121,62 +1173,68 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>-15943461.81298766</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>2286772.822920666</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>4414954.693491726</v>
       </c>
       <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>5184000</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>213354687.4478233</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>138680546.8410851</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>9428054.190971728</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>7150064.028552601</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>6669326.970666185</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>8812320.188752584</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
         <v>15481647.15941877</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
         <v>99761494.75871766</v>
       </c>
-      <c r="R9" t="n">
+      <c r="T9" t="n">
         <v>252765957.4468085</v>
       </c>
-      <c r="S9" t="n">
+      <c r="U9" t="n">
         <v>22693416.15994733</v>
       </c>
-      <c r="T9" t="n">
+      <c r="V9" t="n">
         <v>464449.414782563</v>
       </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[BELOW MIN UTIL LEVEL] [NEGATIVE CASH] [MARGIN CALL] </t>
-        </is>
-      </c>
-      <c r="V9" t="n">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[BELOW MIN UTIL LEVEL] [NEGATIVE CASH] [MEZZ TAPPED] </t>
+        </is>
+      </c>
+      <c r="X9" t="n">
         <v>0.0661396574440053</v>
       </c>
-      <c r="W9" t="n">
+      <c r="Y9" t="n">
         <v>0.00643403011000343</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Z9" t="n">
         <v>0.65</v>
       </c>
     </row>
@@ -1199,62 +1257,68 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-14900275.75039411</v>
+        <v>-6661770.509111762</v>
       </c>
       <c r="G10" t="n">
         <v>3179047.636967949</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>5600670.704110458</v>
       </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>3888000</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>259769292.9031703</v>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>168850040.3870607</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>11516519.71493601</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>8954944.450082673</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>8330537.930406871</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>10741669.71493028</v>
       </c>
-      <c r="P10" t="n">
+      <c r="Q10" t="n">
         <v>19072207.64533716</v>
       </c>
-      <c r="Q10" t="n">
-        <v>114661770.5091118</v>
-      </c>
       <c r="R10" t="n">
+        <v>6661770.509111762</v>
+      </c>
+      <c r="S10" t="n">
+        <v>108000000</v>
+      </c>
+      <c r="T10" t="n">
         <v>312127659.5744681</v>
       </c>
-      <c r="S10" t="n">
+      <c r="U10" t="n">
         <v>31023954.0903542</v>
       </c>
-      <c r="T10" t="n">
+      <c r="V10" t="n">
         <v>572166.2293601147</v>
       </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[BELOW MIN UTIL LEVEL] [NEGATIVE CASH] [MARGIN CALL] </t>
-        </is>
-      </c>
-      <c r="V10" t="n">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[BELOW MIN UTIL LEVEL] [NEGATIVE CASH] [MEZZ TAPPED] [MARGIN CALL] </t>
+        </is>
+      </c>
+      <c r="X10" t="n">
         <v>0.0683515604161109</v>
       </c>
-      <c r="W10" t="n">
+      <c r="Y10" t="n">
         <v>0.00643403011000343</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Z10" t="n">
         <v>0.65</v>
       </c>
     </row>
@@ -1283,56 +1347,62 @@
         <v>4265433.880893593</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>6786386.714729192</v>
       </c>
       <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>3888000</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>309793058.9663682</v>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>216334514.3111376</v>
       </c>
-      <c r="L11" t="n">
+      <c r="M11" t="n">
         <v>13779598.53267738</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>10989896.28184761</v>
       </c>
-      <c r="N11" t="n">
+      <c r="O11" t="n">
         <v>10195937.91460048</v>
       </c>
-      <c r="O11" t="n">
+      <c r="P11" t="n">
         <v>12825889.29886537</v>
       </c>
-      <c r="P11" t="n">
+      <c r="Q11" t="n">
         <v>23021827.21346585</v>
       </c>
-      <c r="Q11" t="n">
-        <v>114661770.5091118</v>
-      </c>
       <c r="R11" t="n">
+        <v>6661770.509111762</v>
+      </c>
+      <c r="S11" t="n">
+        <v>108000000</v>
+      </c>
+      <c r="T11" t="n">
         <v>377659574.4680851</v>
       </c>
-      <c r="S11" t="n">
+      <c r="U11" t="n">
         <v>41219892.00495468</v>
       </c>
-      <c r="T11" t="n">
+      <c r="V11" t="n">
         <v>690654.8164039756</v>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t xml:space="preserve">[BELOW MIN UTIL LEVEL] [NEGATIVE CASH] </t>
         </is>
       </c>
-      <c r="V11" t="n">
+      <c r="X11" t="n">
         <v>0.07055725658297607</v>
       </c>
-      <c r="W11" t="n">
+      <c r="Y11" t="n">
         <v>0.00643403011000343</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Z11" t="n">
         <v>0.7</v>
       </c>
     </row>
@@ -1361,56 +1431,62 @@
         <v>5657336.65980442</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>7972102.725347925</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>363174949.0182946</v>
       </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
         <v>254222464.3128062</v>
       </c>
-      <c r="L12" t="n">
+      <c r="M12" t="n">
         <v>16208087.78778646</v>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>13264122.3802568</v>
       </c>
-      <c r="N12" t="n">
+      <c r="O12" t="n">
         <v>12272133.99987745</v>
       </c>
-      <c r="O12" t="n">
+      <c r="P12" t="n">
         <v>15055732.61585777</v>
       </c>
-      <c r="P12" t="n">
+      <c r="Q12" t="n">
         <v>27327866.61573522</v>
       </c>
-      <c r="Q12" t="n">
-        <v>122539984.3301932</v>
-      </c>
       <c r="R12" t="n">
+        <v>14539984.33019322</v>
+      </c>
+      <c r="S12" t="n">
+        <v>108000000</v>
+      </c>
+      <c r="T12" t="n">
         <v>449361702.1276596</v>
       </c>
-      <c r="S12" t="n">
+      <c r="U12" t="n">
         <v>53492026.00483213</v>
       </c>
-      <c r="T12" t="n">
+      <c r="V12" t="n">
         <v>819835.9984720565</v>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t xml:space="preserve">[NEGATIVE CASH] [MARGIN CALL] </t>
         </is>
       </c>
-      <c r="V12" t="n">
+      <c r="X12" t="n">
         <v>0.07275815217391302</v>
       </c>
-      <c r="W12" t="n">
+      <c r="Y12" t="n">
         <v>0.00643403011000343</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Z12" t="n">
         <v>0.7</v>
       </c>
     </row>
@@ -1439,56 +1515,62 @@
         <v>7293011.649832287</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>9157818.735966658</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>419657117.4995056</v>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
         <v>293759982.2496539</v>
       </c>
-      <c r="L13" t="n">
+      <c r="M13" t="n">
         <v>18792416.50959746</v>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>15787193.71597601</v>
       </c>
-      <c r="N13" t="n">
+      <c r="O13" t="n">
         <v>14565935.12655952</v>
       </c>
-      <c r="O13" t="n">
+      <c r="P13" t="n">
         <v>17421751.47751608</v>
       </c>
-      <c r="P13" t="n">
+      <c r="Q13" t="n">
         <v>31987686.6040756</v>
       </c>
-      <c r="Q13" t="n">
-        <v>130522795.2048296</v>
-      </c>
       <c r="R13" t="n">
+        <v>22522795.20482963</v>
+      </c>
+      <c r="S13" t="n">
+        <v>108000000</v>
+      </c>
+      <c r="T13" t="n">
         <v>527234042.5531915</v>
       </c>
-      <c r="S13" t="n">
+      <c r="U13" t="n">
         <v>68057961.13139164</v>
       </c>
-      <c r="T13" t="n">
+      <c r="V13" t="n">
         <v>959630.5981222681</v>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="W13" t="inlineStr">
         <is>
           <t xml:space="preserve">[NEGATIVE CASH] [MARGIN CALL] </t>
         </is>
       </c>
-      <c r="V13" t="n">
+      <c r="X13" t="n">
         <v>0.07495525844825779</v>
       </c>
-      <c r="W13" t="n">
+      <c r="Y13" t="n">
         <v>0.00643403011000343</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Z13" t="n">
         <v>0.7</v>
       </c>
     </row>
@@ -1517,56 +1599,62 @@
         <v>9183072.220740633</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>10343534.74658539</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>478974702.4687716</v>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>335282291.7281401</v>
       </c>
-      <c r="L14" t="n">
+      <c r="M14" t="n">
         <v>21522630.88861799</v>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>18569064.09849767</v>
       </c>
-      <c r="N14" t="n">
+      <c r="O14" t="n">
         <v>17084357.67643245</v>
       </c>
-      <c r="O14" t="n">
+      <c r="P14" t="n">
         <v>19914290.25398492</v>
       </c>
-      <c r="P14" t="n">
+      <c r="Q14" t="n">
         <v>36998647.93041737</v>
       </c>
-      <c r="Q14" t="n">
-        <v>137934451.5583239</v>
-      </c>
       <c r="R14" t="n">
+        <v>29934451.55832386</v>
+      </c>
+      <c r="S14" t="n">
+        <v>108000000</v>
+      </c>
+      <c r="T14" t="n">
         <v>611276595.7446809</v>
       </c>
-      <c r="S14" t="n">
+      <c r="U14" t="n">
         <v>85142318.80782411</v>
       </c>
-      <c r="T14" t="n">
+      <c r="V14" t="n">
         <v>1109959.437912521</v>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t xml:space="preserve">[NEGATIVE CASH] [MARGIN CALL] </t>
         </is>
       </c>
-      <c r="V14" t="n">
+      <c r="X14" t="n">
         <v>0.07714932126696838</v>
       </c>
-      <c r="W14" t="n">
+      <c r="Y14" t="n">
         <v>0.00643403011000343</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Z14" t="n">
         <v>0.7</v>
       </c>
     </row>
@@ -1595,56 +1683,62 @@
         <v>11340288.58107044</v>
       </c>
       <c r="H15" t="n">
+        <v>11529250.75720412</v>
+      </c>
+      <c r="I15" t="n">
         <v>902127.6595744682</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
       <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>540855612.4606004</v>
       </c>
-      <c r="K15" t="n">
+      <c r="L15" t="n">
         <v>378598928.7224202</v>
       </c>
-      <c r="L15" t="n">
+      <c r="M15" t="n">
         <v>24388378.96297596</v>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>21620085.48969384</v>
       </c>
-      <c r="N15" t="n">
+      <c r="O15" t="n">
         <v>19834631.17375861</v>
       </c>
-      <c r="O15" t="n">
+      <c r="P15" t="n">
         <v>22523480.17293226</v>
       </c>
-      <c r="P15" t="n">
+      <c r="Q15" t="n">
         <v>42358111.34669087</v>
       </c>
-      <c r="Q15" t="n">
-        <v>145531813.1947039</v>
-      </c>
       <c r="R15" t="n">
+        <v>37531813.19470388</v>
+      </c>
+      <c r="S15" t="n">
+        <v>108000000</v>
+      </c>
+      <c r="T15" t="n">
         <v>701489361.7021277</v>
       </c>
-      <c r="S15" t="n">
+      <c r="U15" t="n">
         <v>104976949.9815827</v>
       </c>
-      <c r="T15" t="n">
+      <c r="V15" t="n">
         <v>1270743.340400726</v>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t xml:space="preserve">[ABOVE COMMITED AMOUNT] [NEGATIVE CASH] [MARGIN CALL] </t>
         </is>
       </c>
-      <c r="V15" t="n">
+      <c r="X15" t="n">
         <v>0.07934090279700923</v>
       </c>
-      <c r="W15" t="n">
+      <c r="Y15" t="n">
         <v>0.00643403011000343</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Z15" t="n">
         <v>0.7</v>
       </c>
     </row>
@@ -1673,56 +1767,62 @@
         <v>13776205.48808553</v>
       </c>
       <c r="H16" t="n">
+        <v>12714966.76782286</v>
+      </c>
+      <c r="I16" t="n">
         <v>963829.7872340427</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
       <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>605020307.5175738</v>
       </c>
-      <c r="K16" t="n">
+      <c r="L16" t="n">
         <v>423514215.2623017</v>
       </c>
-      <c r="L16" t="n">
+      <c r="M16" t="n">
         <v>27378894.69232437</v>
       </c>
-      <c r="M16" t="n">
+      <c r="N16" t="n">
         <v>24951023.92991152</v>
       </c>
-      <c r="N16" t="n">
+      <c r="O16" t="n">
         <v>22824204.11046424</v>
       </c>
-      <c r="O16" t="n">
+      <c r="P16" t="n">
         <v>25239233.49436222</v>
       </c>
-      <c r="P16" t="n">
+      <c r="Q16" t="n">
         <v>48063437.60482647</v>
       </c>
-      <c r="Q16" t="n">
-        <v>152335814.4676493</v>
-      </c>
       <c r="R16" t="n">
+        <v>44335814.46764934</v>
+      </c>
+      <c r="S16" t="n">
+        <v>108000000</v>
+      </c>
+      <c r="T16" t="n">
         <v>797872340.425532</v>
       </c>
-      <c r="S16" t="n">
+      <c r="U16" t="n">
         <v>127801154.092047</v>
       </c>
-      <c r="T16" t="n">
+      <c r="V16" t="n">
         <v>1441903.128144794</v>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="W16" t="inlineStr">
         <is>
           <t xml:space="preserve">[ABOVE COMMITED AMOUNT] [NEGATIVE CASH] [MARGIN CALL] </t>
         </is>
       </c>
-      <c r="V16" t="n">
+      <c r="X16" t="n">
         <v>0.08153043478260869</v>
       </c>
-      <c r="W16" t="n">
+      <c r="Y16" t="n">
         <v>0.00643403011000343</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Z16" t="n">
         <v>0.7</v>
       </c>
     </row>
@@ -1751,56 +1851,62 @@
         <v>16501108.70109766</v>
       </c>
       <c r="H17" t="n">
+        <v>13900682.77844159</v>
+      </c>
+      <c r="I17" t="n">
         <v>1025531.914893617</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>671181574.2725086</v>
       </c>
-      <c r="K17" t="n">
+      <c r="L17" t="n">
         <v>475705854.4228146</v>
       </c>
-      <c r="L17" t="n">
+      <c r="M17" t="n">
         <v>30482981.39470238</v>
       </c>
-      <c r="M17" t="n">
+      <c r="N17" t="n">
         <v>28573076.10111156</v>
       </c>
-      <c r="N17" t="n">
+      <c r="O17" t="n">
         <v>26060749.89631377</v>
       </c>
-      <c r="O17" t="n">
+      <c r="P17" t="n">
         <v>28051237.56044073</v>
       </c>
-      <c r="P17" t="n">
+      <c r="Q17" t="n">
         <v>54111987.45675451</v>
       </c>
-      <c r="Q17" t="n">
-        <v>152335814.4676493</v>
-      </c>
       <c r="R17" t="n">
+        <v>44335814.46764934</v>
+      </c>
+      <c r="S17" t="n">
+        <v>108000000</v>
+      </c>
+      <c r="T17" t="n">
         <v>900425531.9148936</v>
       </c>
-      <c r="S17" t="n">
+      <c r="U17" t="n">
         <v>153861903.9883607</v>
       </c>
-      <c r="T17" t="n">
+      <c r="V17" t="n">
         <v>1623359.623702635</v>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="W17" t="inlineStr">
         <is>
           <t xml:space="preserve">[ABOVE COMMITED AMOUNT] [NEGATIVE CASH] </t>
         </is>
       </c>
-      <c r="V17" t="n">
+      <c r="X17" t="n">
         <v>0.08371825429440305</v>
       </c>
-      <c r="W17" t="n">
+      <c r="Y17" t="n">
         <v>0.00643403011000343</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Z17" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -1829,56 +1935,62 @@
         <v>19561814.49195896</v>
       </c>
       <c r="H18" t="n">
+        <v>15086398.78906032</v>
+      </c>
+      <c r="I18" t="n">
         <v>1087234.042553192</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
       <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>739044294.9547802</v>
       </c>
-      <c r="K18" t="n">
+      <c r="L18" t="n">
         <v>528076076.8571429</v>
       </c>
-      <c r="L18" t="n">
+      <c r="M18" t="n">
         <v>33688994.52087069</v>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>32497886.55253327</v>
       </c>
-      <c r="N18" t="n">
+      <c r="O18" t="n">
         <v>29552172.93474978</v>
       </c>
-      <c r="O18" t="n">
+      <c r="P18" t="n">
         <v>30948948.71965559</v>
       </c>
-      <c r="P18" t="n">
+      <c r="Q18" t="n">
         <v>60501121.65440537</v>
       </c>
-      <c r="Q18" t="n">
-        <v>152335814.4676493</v>
-      </c>
       <c r="R18" t="n">
+        <v>44335814.46764934</v>
+      </c>
+      <c r="S18" t="n">
+        <v>108000000</v>
+      </c>
+      <c r="T18" t="n">
         <v>1009148936.170213</v>
       </c>
-      <c r="S18" t="n">
+      <c r="U18" t="n">
         <v>183414076.9231105</v>
       </c>
-      <c r="T18" t="n">
+      <c r="V18" t="n">
         <v>1815033.649632161</v>
       </c>
-      <c r="U18" t="inlineStr">
+      <c r="W18" t="inlineStr">
         <is>
           <t xml:space="preserve">[ABOVE COMMITED AMOUNT] [NEGATIVE CASH] </t>
         </is>
       </c>
-      <c r="V18" t="n">
+      <c r="X18" t="n">
         <v>0.08590462833099588</v>
       </c>
-      <c r="W18" t="n">
+      <c r="Y18" t="n">
         <v>0.00643403011000343</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Z18" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -1907,56 +2019,62 @@
         <v>22959471.8708303</v>
       </c>
       <c r="H19" t="n">
+        <v>16272114.79967906</v>
+      </c>
+      <c r="I19" t="n">
         <v>1148936.170212766</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
       <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>808305210.1946033</v>
       </c>
-      <c r="K19" t="n">
+      <c r="L19" t="n">
         <v>580288086.4777942</v>
       </c>
-      <c r="L19" t="n">
+      <c r="M19" t="n">
         <v>36984823.73962042</v>
       </c>
-      <c r="M19" t="n">
+      <c r="N19" t="n">
         <v>36737565.6153855</v>
       </c>
-      <c r="N19" t="n">
+      <c r="O19" t="n">
         <v>33306614.8249316</v>
       </c>
-      <c r="O19" t="n">
+      <c r="P19" t="n">
         <v>33921586.12477779</v>
       </c>
-      <c r="P19" t="n">
+      <c r="Q19" t="n">
         <v>67228200.94970939</v>
       </c>
-      <c r="Q19" t="n">
-        <v>152335814.4676493</v>
-      </c>
       <c r="R19" t="n">
+        <v>44335814.46764934</v>
+      </c>
+      <c r="S19" t="n">
+        <v>108000000</v>
+      </c>
+      <c r="T19" t="n">
         <v>1124042553.191489</v>
       </c>
-      <c r="S19" t="n">
+      <c r="U19" t="n">
         <v>216720691.7480421</v>
       </c>
-      <c r="T19" t="n">
+      <c r="V19" t="n">
         <v>2016846.028491281</v>
       </c>
-      <c r="U19" t="inlineStr">
+      <c r="W19" t="inlineStr">
         <is>
           <t xml:space="preserve">[ABOVE COMMITED AMOUNT] [NEGATIVE CASH] </t>
         </is>
       </c>
-      <c r="V19" t="n">
+      <c r="X19" t="n">
         <v>0.08808977112806471</v>
       </c>
-      <c r="W19" t="n">
+      <c r="Y19" t="n">
         <v>0.00643403011000343</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Z19" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -1985,56 +2103,62 @@
         <v>26693062.8917047</v>
       </c>
       <c r="H20" t="n">
+        <v>17457830.81029779</v>
+      </c>
+      <c r="I20" t="n">
         <v>1210638.29787234</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
       <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>878652675.4987059</v>
       </c>
-      <c r="K20" t="n">
+      <c r="L20" t="n">
         <v>632005559.4891779</v>
       </c>
-      <c r="L20" t="n">
+      <c r="M20" t="n">
         <v>40357874.30649435</v>
       </c>
-      <c r="M20" t="n">
+      <c r="N20" t="n">
         <v>41304708.0341255</v>
       </c>
-      <c r="N20" t="n">
+      <c r="O20" t="n">
         <v>37332460.69034719</v>
       </c>
-      <c r="O20" t="n">
+      <c r="P20" t="n">
         <v>36958125.40424973</v>
       </c>
-      <c r="P20" t="n">
+      <c r="Q20" t="n">
         <v>74290586.09459694</v>
       </c>
-      <c r="Q20" t="n">
-        <v>152335814.4676493</v>
-      </c>
       <c r="R20" t="n">
+        <v>44335814.46764934</v>
+      </c>
+      <c r="S20" t="n">
+        <v>108000000</v>
+      </c>
+      <c r="T20" t="n">
         <v>1245106382.978723</v>
       </c>
-      <c r="S20" t="n">
+      <c r="U20" t="n">
         <v>254053152.4383893</v>
       </c>
-      <c r="T20" t="n">
+      <c r="V20" t="n">
         <v>2228717.582837908</v>
       </c>
-      <c r="U20" t="inlineStr">
+      <c r="W20" t="inlineStr">
         <is>
           <t xml:space="preserve">[ABOVE COMMITED AMOUNT] [NEGATIVE CASH] </t>
         </is>
       </c>
-      <c r="V20" t="n">
+      <c r="X20" t="n">
         <v>0.09027385657820441</v>
       </c>
-      <c r="W20" t="n">
+      <c r="Y20" t="n">
         <v>0.00643403011000343</v>
       </c>
-      <c r="X20" t="n">
+      <c r="Z20" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -2063,56 +2187,62 @@
         <v>30759405.69114764</v>
       </c>
       <c r="H21" t="n">
+        <v>18643546.82091652</v>
+      </c>
+      <c r="I21" t="n">
         <v>1272340.425531915</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
       <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>949766411.2706101</v>
       </c>
-      <c r="K21" t="n">
+      <c r="L21" t="n">
         <v>682892647.4263458</v>
       </c>
-      <c r="L21" t="n">
+      <c r="M21" t="n">
         <v>43795047.68725699</v>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
         <v>46212412.34298874</v>
       </c>
-      <c r="N21" t="n">
+      <c r="O21" t="n">
         <v>41638345.63420076</v>
       </c>
-      <c r="O21" t="n">
+      <c r="P21" t="n">
         <v>40047292.20679758</v>
       </c>
-      <c r="P21" t="n">
+      <c r="Q21" t="n">
         <v>81685637.84099834</v>
       </c>
-      <c r="Q21" t="n">
-        <v>152335814.4676493</v>
-      </c>
       <c r="R21" t="n">
+        <v>44335814.46764934</v>
+      </c>
+      <c r="S21" t="n">
+        <v>108000000</v>
+      </c>
+      <c r="T21" t="n">
         <v>1372340425.531915</v>
       </c>
-      <c r="S21" t="n">
+      <c r="U21" t="n">
         <v>295691498.0725901</v>
       </c>
-      <c r="T21" t="n">
+      <c r="V21" t="n">
         <v>2450569.13522995</v>
       </c>
-      <c r="U21" t="inlineStr">
+      <c r="W21" t="inlineStr">
         <is>
           <t xml:space="preserve">[ABOVE COMMITED AMOUNT] [NEGATIVE CASH] </t>
         </is>
       </c>
-      <c r="V21" t="n">
+      <c r="X21" t="n">
         <v>0.09245702730030358</v>
       </c>
-      <c r="W21" t="n">
+      <c r="Y21" t="n">
         <v>0.00643403011000343</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Z21" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -2141,56 +2271,62 @@
         <v>35153157.5465887</v>
       </c>
       <c r="H22" t="n">
+        <v>19829262.83153525</v>
+      </c>
+      <c r="I22" t="n">
         <v>1334042.553191489</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
       <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>1021317246.24874</v>
       </c>
-      <c r="K22" t="n">
+      <c r="L22" t="n">
         <v>732613980.2132834</v>
       </c>
-      <c r="L22" t="n">
+      <c r="M22" t="n">
         <v>47282721.40630339</v>
       </c>
-      <c r="M22" t="n">
+      <c r="N22" t="n">
         <v>51474301.01758017</v>
       </c>
-      <c r="N22" t="n">
+      <c r="O22" t="n">
         <v>46233161.32159247</v>
       </c>
-      <c r="O22" t="n">
+      <c r="P22" t="n">
         <v>43177555.61925153</v>
       </c>
-      <c r="P22" t="n">
+      <c r="Q22" t="n">
         <v>89410716.94084398</v>
       </c>
-      <c r="Q22" t="n">
-        <v>152335814.4676493</v>
-      </c>
       <c r="R22" t="n">
+        <v>44335814.46764934</v>
+      </c>
+      <c r="S22" t="n">
+        <v>108000000</v>
+      </c>
+      <c r="T22" t="n">
         <v>1505744680.851064</v>
       </c>
-      <c r="S22" t="n">
+      <c r="U22" t="n">
         <v>341924659.3941825</v>
       </c>
-      <c r="T22" t="n">
+      <c r="V22" t="n">
         <v>2682321.508225319</v>
       </c>
-      <c r="U22" t="inlineStr">
+      <c r="W22" t="inlineStr">
         <is>
           <t xml:space="preserve">[ABOVE COMMITED AMOUNT] [NEGATIVE CASH] </t>
         </is>
       </c>
-      <c r="V22" t="n">
+      <c r="X22" t="n">
         <v>0.09463940136756566</v>
       </c>
-      <c r="W22" t="n">
+      <c r="Y22" t="n">
         <v>0.00643403011000343</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Z22" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -2219,56 +2355,62 @@
         <v>39866817.95429043</v>
       </c>
       <c r="H23" t="n">
+        <v>21014978.84215399</v>
+      </c>
+      <c r="I23" t="n">
         <v>1395744.680851064</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
       <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>1092966854.235736</v>
       </c>
-      <c r="K23" t="n">
+      <c r="L23" t="n">
         <v>780834669.2408783</v>
       </c>
-      <c r="L23" t="n">
+      <c r="M23" t="n">
         <v>50806728.08900446</v>
       </c>
-      <c r="M23" t="n">
+      <c r="N23" t="n">
         <v>57104541.43252893</v>
       </c>
-      <c r="N23" t="n">
+      <c r="O23" t="n">
         <v>51126062.68830498</v>
       </c>
-      <c r="O23" t="n">
+      <c r="P23" t="n">
         <v>46337121.45775926</v>
       </c>
-      <c r="P23" t="n">
+      <c r="Q23" t="n">
         <v>97463184.14606424</v>
       </c>
-      <c r="Q23" t="n">
-        <v>152335814.4676493</v>
-      </c>
       <c r="R23" t="n">
+        <v>44335814.46764934</v>
+      </c>
+      <c r="S23" t="n">
+        <v>108000000</v>
+      </c>
+      <c r="T23" t="n">
         <v>1645319148.93617</v>
       </c>
-      <c r="S23" t="n">
+      <c r="U23" t="n">
         <v>393050722.0824875</v>
       </c>
-      <c r="T23" t="n">
+      <c r="V23" t="n">
         <v>2923895.524381927</v>
       </c>
-      <c r="U23" t="inlineStr">
+      <c r="W23" t="inlineStr">
         <is>
           <t xml:space="preserve">[ABOVE COMMITED AMOUNT] [NEGATIVE CASH] </t>
         </is>
       </c>
-      <c r="V23" t="n">
+      <c r="X23" t="n">
         <v>0.09682107737027656</v>
       </c>
-      <c r="W23" t="n">
+      <c r="Y23" t="n">
         <v>0.00643403011000343</v>
       </c>
-      <c r="X23" t="n">
+      <c r="Z23" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -2297,56 +2439,62 @@
         <v>44890731.72712081</v>
       </c>
       <c r="H24" t="n">
+        <v>22200694.85277272</v>
+      </c>
+      <c r="I24" t="n">
         <v>1457446.808510638</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
       <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>1164367483.992782</v>
       </c>
-      <c r="K24" t="n">
+      <c r="L24" t="n">
         <v>827220310.4646938</v>
       </c>
-      <c r="L24" t="n">
+      <c r="M24" t="n">
         <v>54352333.66574584</v>
       </c>
-      <c r="M24" t="n">
+      <c r="N24" t="n">
         <v>63117867.6574493</v>
       </c>
-      <c r="N24" t="n">
+      <c r="O24" t="n">
         <v>56326474.77579391</v>
       </c>
-      <c r="O24" t="n">
+      <c r="P24" t="n">
         <v>49513925.4327955</v>
       </c>
-      <c r="P24" t="n">
+      <c r="Q24" t="n">
         <v>105840400.2085894</v>
       </c>
-      <c r="Q24" t="n">
-        <v>152335814.4676493</v>
-      </c>
       <c r="R24" t="n">
+        <v>44335814.46764934</v>
+      </c>
+      <c r="S24" t="n">
+        <v>108000000</v>
+      </c>
+      <c r="T24" t="n">
         <v>1791063829.787234</v>
       </c>
-      <c r="S24" t="n">
+      <c r="U24" t="n">
         <v>449377196.8582814</v>
       </c>
-      <c r="T24" t="n">
+      <c r="V24" t="n">
         <v>3175212.006257683</v>
       </c>
-      <c r="U24" t="inlineStr">
+      <c r="W24" t="inlineStr">
         <is>
           <t xml:space="preserve">[ABOVE COMMITED AMOUNT] [NEGATIVE CASH] </t>
         </is>
       </c>
-      <c r="V24" t="n">
+      <c r="X24" t="n">
         <v>0.09900213827512494</v>
       </c>
-      <c r="W24" t="n">
+      <c r="Y24" t="n">
         <v>0.00643403011000343</v>
       </c>
-      <c r="X24" t="n">
+      <c r="Z24" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -2375,56 +2523,62 @@
         <v>50213092.11225703</v>
       </c>
       <c r="H25" t="n">
+        <v>23386410.86339145</v>
+      </c>
+      <c r="I25" t="n">
         <v>1447796.895353063</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
       <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>1228556677.195992</v>
       </c>
-      <c r="K25" t="n">
+      <c r="L25" t="n">
         <v>864675008.0554883</v>
       </c>
-      <c r="L25" t="n">
+      <c r="M25" t="n">
         <v>57618806.54086012</v>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
         <v>69347035.86132573</v>
       </c>
-      <c r="N25" t="n">
+      <c r="O25" t="n">
         <v>61670660.79150079</v>
       </c>
-      <c r="O25" t="n">
+      <c r="P25" t="n">
         <v>52424488.43350029</v>
       </c>
-      <c r="P25" t="n">
+      <c r="Q25" t="n">
         <v>114095149.2250011</v>
       </c>
-      <c r="Q25" t="n">
-        <v>152335814.4676493</v>
-      </c>
       <c r="R25" t="n">
+        <v>44335814.46764934</v>
+      </c>
+      <c r="S25" t="n">
+        <v>108000000</v>
+      </c>
+      <c r="T25" t="n">
         <v>1935843519.32254</v>
       </c>
-      <c r="S25" t="n">
+      <c r="U25" t="n">
         <v>511047857.6497822</v>
       </c>
-      <c r="T25" t="n">
+      <c r="V25" t="n">
         <v>3422854.476750032</v>
       </c>
-      <c r="U25" t="inlineStr">
+      <c r="W25" t="inlineStr">
         <is>
           <t xml:space="preserve"> [FACILITY FULL] [ABOVE COMMITED AMOUNT] [NEGATIVE CASH] </t>
         </is>
       </c>
-      <c r="V25" t="n">
+      <c r="X25" t="n">
         <v>0.1013713053343489</v>
       </c>
-      <c r="W25" t="n">
+      <c r="Y25" t="n">
         <v>0.00643403011000343</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Z25" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -2444,7 +2598,7 @@
         <v>133349080.2340047</v>
       </c>
       <c r="E26" t="n">
-        <v>6807328.0391495</v>
+        <v>6566936.019001676</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2453,56 +2607,62 @@
         <v>55776437.14945351</v>
       </c>
       <c r="H26" t="n">
+        <v>24572126.87401018</v>
+      </c>
+      <c r="I26" t="n">
         <v>1073249.919445118</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
       <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>1253156533.771418</v>
       </c>
-      <c r="K26" t="n">
+      <c r="L26" t="n">
         <v>865748257.9749335</v>
       </c>
-      <c r="L26" t="n">
+      <c r="M26" t="n">
         <v>59137924.78418756</v>
       </c>
-      <c r="M26" t="n">
+      <c r="N26" t="n">
         <v>74211155.44981709</v>
       </c>
-      <c r="N26" t="n">
+      <c r="O26" t="n">
         <v>65755517.31010022</v>
       </c>
-      <c r="O26" t="n">
+      <c r="P26" t="n">
         <v>53678327.40155949</v>
       </c>
-      <c r="P26" t="n">
+      <c r="Q26" t="n">
         <v>119433844.7116597</v>
       </c>
-      <c r="Q26" t="n">
-        <v>152335814.4676493</v>
-      </c>
       <c r="R26" t="n">
+        <v>44335814.46764934</v>
+      </c>
+      <c r="S26" t="n">
+        <v>108000000</v>
+      </c>
+      <c r="T26" t="n">
         <v>2043168511.267052</v>
       </c>
-      <c r="S26" t="n">
+      <c r="U26" t="n">
         <v>576803374.9598824</v>
       </c>
-      <c r="T26" t="n">
+      <c r="V26" t="n">
         <v>3583015.34134979</v>
       </c>
-      <c r="U26" t="inlineStr">
+      <c r="W26" t="inlineStr">
         <is>
           <t xml:space="preserve"> [FACILITY FULL] [ABOVE COMMITED AMOUNT] [POSITIVE CASH] [CASH EARNED CDI] </t>
         </is>
       </c>
-      <c r="V26" t="n">
+      <c r="X26" t="n">
         <v>0.1043519422700641</v>
       </c>
-      <c r="W26" t="n">
+      <c r="Y26" t="n">
         <v>0.00643403011000343</v>
       </c>
-      <c r="X26" t="n">
+      <c r="Z26" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -2522,7 +2682,7 @@
         <v>139641021.4408309</v>
       </c>
       <c r="E27" t="n">
-        <v>20480570.44892484</v>
+        <v>19516146.48659175</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2531,56 +2691,62 @@
         <v>61346687.50894725</v>
       </c>
       <c r="H27" t="n">
+        <v>25757842.88462891</v>
+      </c>
+      <c r="I27" t="n">
         <v>1062517.420250666</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
       <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>1272765241.353423</v>
       </c>
-      <c r="K27" t="n">
+      <c r="L27" t="n">
         <v>866810775.3951842</v>
       </c>
-      <c r="L27" t="n">
+      <c r="M27" t="n">
         <v>60419548.24719753</v>
       </c>
-      <c r="M27" t="n">
+      <c r="N27" t="n">
         <v>79221473.1936333</v>
       </c>
-      <c r="N27" t="n">
+      <c r="O27" t="n">
         <v>69988170.3264934</v>
       </c>
-      <c r="O27" t="n">
+      <c r="P27" t="n">
         <v>54719350.21980674</v>
       </c>
-      <c r="P27" t="n">
+      <c r="Q27" t="n">
         <v>124707520.5463001</v>
       </c>
-      <c r="Q27" t="n">
-        <v>152335814.4676493</v>
-      </c>
       <c r="R27" t="n">
+        <v>44335814.46764934</v>
+      </c>
+      <c r="S27" t="n">
+        <v>108000000</v>
+      </c>
+      <c r="T27" t="n">
         <v>2149420253.292119</v>
       </c>
-      <c r="S27" t="n">
+      <c r="U27" t="n">
         <v>646791545.2863758</v>
       </c>
-      <c r="T27" t="n">
+      <c r="V27" t="n">
         <v>3741225.616389004</v>
       </c>
-      <c r="U27" t="inlineStr">
+      <c r="W27" t="inlineStr">
         <is>
           <t xml:space="preserve"> [FACILITY FULL] [ABOVE COMMITED AMOUNT] [POSITIVE CASH] [CASH EARNED CDI] </t>
         </is>
       </c>
-      <c r="V27" t="n">
+      <c r="X27" t="n">
         <v>0.1069420771951201</v>
       </c>
-      <c r="W27" t="n">
+      <c r="Y27" t="n">
         <v>0.00643403011000343</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Z27" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -2600,7 +2766,7 @@
         <v>145454753.0014028</v>
       </c>
       <c r="E28" t="n">
-        <v>40829253.10925487</v>
+        <v>38419839.39864769</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2609,56 +2775,62 @@
         <v>66923774.13751528</v>
       </c>
       <c r="H28" t="n">
+        <v>26943558.89524764</v>
+      </c>
+      <c r="I28" t="n">
         <v>1051892.24604816</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
       <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>1287200938.208895</v>
       </c>
-      <c r="K28" t="n">
+      <c r="L28" t="n">
         <v>867862667.6412324</v>
       </c>
-      <c r="L28" t="n">
+      <c r="M28" t="n">
         <v>61458258.30364484</v>
       </c>
-      <c r="M28" t="n">
+      <c r="N28" t="n">
         <v>83996494.69775788</v>
       </c>
-      <c r="N28" t="n">
+      <c r="O28" t="n">
         <v>74003560.83990787</v>
       </c>
-      <c r="O28" t="n">
+      <c r="P28" t="n">
         <v>55541077.16498869</v>
       </c>
-      <c r="P28" t="n">
+      <c r="Q28" t="n">
         <v>129544638.0048965</v>
       </c>
-      <c r="Q28" t="n">
-        <v>152335814.4676493</v>
-      </c>
       <c r="R28" t="n">
+        <v>44335814.46764934</v>
+      </c>
+      <c r="S28" t="n">
+        <v>108000000</v>
+      </c>
+      <c r="T28" t="n">
         <v>2254609477.896935</v>
       </c>
-      <c r="S28" t="n">
+      <c r="U28" t="n">
         <v>720795106.1262836</v>
       </c>
-      <c r="T28" t="n">
+      <c r="V28" t="n">
         <v>3886339.140146896</v>
       </c>
-      <c r="U28" t="inlineStr">
+      <c r="W28" t="inlineStr">
         <is>
           <t xml:space="preserve"> [FACILITY FULL] [ABOVE COMMITED AMOUNT] [POSITIVE CASH] [CASH EARNED CDI] </t>
         </is>
       </c>
-      <c r="V28" t="n">
+      <c r="X28" t="n">
         <v>0.109381884525649</v>
       </c>
-      <c r="W28" t="n">
+      <c r="Y28" t="n">
         <v>0.00643403011000343</v>
       </c>
-      <c r="X28" t="n">
+      <c r="Z28" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -2678,7 +2850,7 @@
         <v>151247437.7654805</v>
       </c>
       <c r="E29" t="n">
-        <v>68110361.73394455</v>
+        <v>63287830.54850446</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2687,56 +2859,62 @@
         <v>72507628.67246687</v>
       </c>
       <c r="H29" t="n">
+        <v>28129274.90586637</v>
+      </c>
+      <c r="I29" t="n">
         <v>1041373.323587678</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
       <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>1296712360.05595</v>
       </c>
-      <c r="K29" t="n">
+      <c r="L29" t="n">
         <v>868904040.96482</v>
       </c>
-      <c r="L29" t="n">
+      <c r="M29" t="n">
         <v>62263891.81008523</v>
       </c>
-      <c r="M29" t="n">
+      <c r="N29" t="n">
         <v>88983545.95539525</v>
       </c>
-      <c r="N29" t="n">
+      <c r="O29" t="n">
         <v>78228435.10167921</v>
       </c>
-      <c r="O29" t="n">
+      <c r="P29" t="n">
         <v>56154231.11927041</v>
       </c>
-      <c r="P29" t="n">
+      <c r="Q29" t="n">
         <v>134382666.2209496</v>
       </c>
-      <c r="Q29" t="n">
-        <v>152335814.4676493</v>
-      </c>
       <c r="R29" t="n">
+        <v>44335814.46764934</v>
+      </c>
+      <c r="S29" t="n">
+        <v>108000000</v>
+      </c>
+      <c r="T29" t="n">
         <v>2358746810.255703</v>
       </c>
-      <c r="S29" t="n">
+      <c r="U29" t="n">
         <v>799023541.2279629</v>
       </c>
-      <c r="T29" t="n">
+      <c r="V29" t="n">
         <v>4031479.986628489</v>
       </c>
-      <c r="U29" t="inlineStr">
+      <c r="W29" t="inlineStr">
         <is>
           <t xml:space="preserve"> [FACILITY FULL] [ABOVE COMMITED AMOUNT] [POSITIVE CASH] [CASH EARNED CDI] </t>
         </is>
       </c>
-      <c r="V29" t="n">
+      <c r="X29" t="n">
         <v>0.1115045107123127</v>
       </c>
-      <c r="W29" t="n">
+      <c r="Y29" t="n">
         <v>0.00643403011000343</v>
       </c>
-      <c r="X29" t="n">
+      <c r="Z29" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -2756,7 +2934,7 @@
         <v>156558811.7536511</v>
       </c>
       <c r="E30" t="n">
-        <v>102130433.5677837</v>
+        <v>93685509.97845159</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2765,56 +2943,62 @@
         <v>78098183.43473817</v>
       </c>
       <c r="H30" t="n">
+        <v>29314990.9164851</v>
+      </c>
+      <c r="I30" t="n">
         <v>1030959.590351801</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
       <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>1300999767.766276</v>
       </c>
-      <c r="K30" t="n">
+      <c r="L30" t="n">
         <v>869935000.5551718</v>
       </c>
-      <c r="L30" t="n">
+      <c r="M30" t="n">
         <v>62828388.33327662</v>
       </c>
-      <c r="M30" t="n">
+      <c r="N30" t="n">
         <v>93730423.4203745</v>
       </c>
-      <c r="N30" t="n">
+      <c r="O30" t="n">
         <v>82228991.70008951</v>
       </c>
-      <c r="O30" t="n">
+      <c r="P30" t="n">
         <v>56549500.33244009</v>
       </c>
-      <c r="P30" t="n">
+      <c r="Q30" t="n">
         <v>138778492.0325296</v>
       </c>
-      <c r="Q30" t="n">
-        <v>152335814.4676493</v>
-      </c>
       <c r="R30" t="n">
+        <v>44335814.46764934</v>
+      </c>
+      <c r="S30" t="n">
+        <v>108000000</v>
+      </c>
+      <c r="T30" t="n">
         <v>2461842769.290883</v>
       </c>
-      <c r="S30" t="n">
+      <c r="U30" t="n">
         <v>881252532.9280524</v>
       </c>
-      <c r="T30" t="n">
+      <c r="V30" t="n">
         <v>4163354.760975888</v>
       </c>
-      <c r="U30" t="inlineStr">
+      <c r="W30" t="inlineStr">
         <is>
           <t xml:space="preserve"> [FACILITY FULL] [ABOVE COMMITED AMOUNT] [POSITIVE CASH] [CASH EARNED CDI] </t>
         </is>
       </c>
-      <c r="V30" t="n">
+      <c r="X30" t="n">
         <v>0.1135695878242818</v>
       </c>
-      <c r="W30" t="n">
+      <c r="Y30" t="n">
         <v>0.00643403011000343</v>
       </c>
-      <c r="X30" t="n">
+      <c r="Z30" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -2834,7 +3018,7 @@
         <v>161941973.913386</v>
       </c>
       <c r="E31" t="n">
-        <v>143238211.7567588</v>
+        <v>129707368.763854</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2843,56 +3027,62 @@
         <v>83695371.422056</v>
       </c>
       <c r="H31" t="n">
+        <v>30500706.92710384</v>
+      </c>
+      <c r="I31" t="n">
         <v>1020649.994448283</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
       <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>1300367273.495701</v>
       </c>
-      <c r="K31" t="n">
+      <c r="L31" t="n">
         <v>870955650.5496202</v>
       </c>
-      <c r="L31" t="n">
+      <c r="M31" t="n">
         <v>63161771.37425476</v>
       </c>
-      <c r="M31" t="n">
+      <c r="N31" t="n">
         <v>98780202.53913121</v>
       </c>
-      <c r="N31" t="n">
+      <c r="O31" t="n">
         <v>86522778.89482069</v>
       </c>
-      <c r="O31" t="n">
+      <c r="P31" t="n">
         <v>56738024.73565608</v>
       </c>
-      <c r="P31" t="n">
+      <c r="Q31" t="n">
         <v>143260803.6304767</v>
       </c>
-      <c r="Q31" t="n">
-        <v>152335814.4676493</v>
-      </c>
       <c r="R31" t="n">
+        <v>44335814.46764934</v>
+      </c>
+      <c r="S31" t="n">
+        <v>108000000</v>
+      </c>
+      <c r="T31" t="n">
         <v>2563907768.735711</v>
       </c>
-      <c r="S31" t="n">
+      <c r="U31" t="n">
         <v>967775311.8228731</v>
       </c>
-      <c r="T31" t="n">
+      <c r="V31" t="n">
         <v>4297824.108914301</v>
       </c>
-      <c r="U31" t="inlineStr">
+      <c r="W31" t="inlineStr">
         <is>
           <t xml:space="preserve"> [FACILITY FULL] [ABOVE COMMITED AMOUNT] [POSITIVE CASH] [CASH EARNED CDI] </t>
         </is>
       </c>
-      <c r="V31" t="n">
+      <c r="X31" t="n">
         <v>0.1153571852403182</v>
       </c>
-      <c r="W31" t="n">
+      <c r="Y31" t="n">
         <v>0.00643403011000343</v>
       </c>
-      <c r="X31" t="n">
+      <c r="Z31" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -2921,56 +3111,62 @@
         <v>89636589.61432759</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>31686422.93772257</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>1200233078.192774</v>
       </c>
-      <c r="K32" t="n">
-        <v>593949647.2229304</v>
-      </c>
       <c r="L32" t="n">
+        <v>607480490.2158352</v>
+      </c>
+      <c r="M32" t="n">
         <v>59210563.27268951</v>
       </c>
-      <c r="M32" t="n">
+      <c r="N32" t="n">
         <v>99647434.10322604</v>
       </c>
-      <c r="N32" t="n">
+      <c r="O32" t="n">
         <v>86841988.36379988</v>
       </c>
-      <c r="O32" t="n">
+      <c r="P32" t="n">
         <v>52867021.39840261</v>
       </c>
-      <c r="P32" t="n">
+      <c r="Q32" t="n">
         <v>139709009.7622025</v>
       </c>
-      <c r="Q32" t="n">
-        <v>152335814.4676493</v>
-      </c>
       <c r="R32" t="n">
+        <v>44335814.46764934</v>
+      </c>
+      <c r="S32" t="n">
+        <v>108000000</v>
+      </c>
+      <c r="T32" t="n">
         <v>2563907768.735711</v>
       </c>
-      <c r="S32" t="n">
+      <c r="U32" t="n">
         <v>1054617300.186673</v>
       </c>
-      <c r="T32" t="n">
+      <c r="V32" t="n">
         <v>4191270.292866076</v>
       </c>
-      <c r="U32" t="inlineStr">
+      <c r="W32" t="inlineStr">
         <is>
           <t xml:space="preserve">[ABOVE COMMITED AMOUNT] [AMMORTIZATION PERIOD] [POSITIVE CASH] </t>
         </is>
       </c>
-      <c r="V32" t="n">
+      <c r="X32" t="n">
         <v>0.120541539802995</v>
       </c>
-      <c r="W32" t="n">
+      <c r="Y32" t="n">
         <v>0.006821493365962272</v>
       </c>
-      <c r="X32" t="n">
+      <c r="Z32" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -2996,59 +3192,65 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>93688213.19257444</v>
+        <v>93780513.74828643</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>32872138.9483413</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>1100438666.026674</v>
       </c>
-      <c r="K33" t="n">
-        <v>462145050.5319272</v>
-      </c>
       <c r="L33" t="n">
+        <v>475768194.080544</v>
+      </c>
+      <c r="M33" t="n">
         <v>55224665.90856047</v>
       </c>
-      <c r="M33" t="n">
+      <c r="N33" t="n">
         <v>100144670.2258727</v>
       </c>
-      <c r="N33" t="n">
+      <c r="O33" t="n">
         <v>86845989.76858659</v>
       </c>
-      <c r="O33" t="n">
+      <c r="P33" t="n">
         <v>49010230.50066349</v>
       </c>
-      <c r="P33" t="n">
+      <c r="Q33" t="n">
         <v>135856220.26925</v>
       </c>
-      <c r="Q33" t="n">
-        <v>152335814.4676493</v>
-      </c>
       <c r="R33" t="n">
+        <v>44335814.46764934</v>
+      </c>
+      <c r="S33" t="n">
+        <v>108000000</v>
+      </c>
+      <c r="T33" t="n">
         <v>2563907768.735711</v>
       </c>
-      <c r="S33" t="n">
+      <c r="U33" t="n">
         <v>1141463289.95526</v>
       </c>
-      <c r="T33" t="n">
+      <c r="V33" t="n">
         <v>4075686.608077501</v>
       </c>
-      <c r="U33" t="inlineStr">
+      <c r="W33" t="inlineStr">
         <is>
           <t xml:space="preserve">[ABOVE COMMITED AMOUNT] [AMMORTIZATION PERIOD] [POSITIVE CASH] </t>
         </is>
       </c>
-      <c r="V33" t="n">
+      <c r="X33" t="n">
         <v>0.1255918082078913</v>
       </c>
-      <c r="W33" t="n">
+      <c r="Y33" t="n">
         <v>0.006821493365962272</v>
       </c>
-      <c r="X33" t="n">
+      <c r="Z33" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -3074,59 +3276,65 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>96840732.58889028</v>
+        <v>97025963.32794271</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>34057854.95896003</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>1001274029.473068</v>
       </c>
-      <c r="K34" t="n">
-        <v>333592495.528554</v>
-      </c>
       <c r="L34" t="n">
+        <v>347308569.2605112</v>
+      </c>
+      <c r="M34" t="n">
         <v>51218879.09952556</v>
       </c>
-      <c r="M34" t="n">
+      <c r="N34" t="n">
         <v>100257111.0894133</v>
       </c>
-      <c r="N34" t="n">
+      <c r="O34" t="n">
         <v>86524644.88749303</v>
       </c>
-      <c r="O34" t="n">
+      <c r="P34" t="n">
         <v>45180429.51219606</v>
       </c>
-      <c r="P34" t="n">
+      <c r="Q34" t="n">
         <v>131705074.3996891</v>
       </c>
-      <c r="Q34" t="n">
-        <v>152335814.4676493</v>
-      </c>
       <c r="R34" t="n">
+        <v>44335814.46764934</v>
+      </c>
+      <c r="S34" t="n">
+        <v>108000000</v>
+      </c>
+      <c r="T34" t="n">
         <v>2563907768.735711</v>
       </c>
-      <c r="S34" t="n">
+      <c r="U34" t="n">
         <v>1227987934.842753</v>
       </c>
-      <c r="T34" t="n">
+      <c r="V34" t="n">
         <v>3951152.231990673</v>
       </c>
-      <c r="U34" t="inlineStr">
+      <c r="W34" t="inlineStr">
         <is>
           <t xml:space="preserve">[ABOVE COMMITED AMOUNT] [AMMORTIZATION PERIOD] [POSITIVE CASH] </t>
         </is>
       </c>
-      <c r="V34" t="n">
+      <c r="X34" t="n">
         <v>0.1305217794885452</v>
       </c>
-      <c r="W34" t="n">
+      <c r="Y34" t="n">
         <v>0.006821493365962272</v>
       </c>
-      <c r="X34" t="n">
+      <c r="Z34" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -3152,59 +3360,65 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>99116331.58407311</v>
+        <v>99395126.42909513</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>35243570.96957877</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>903041147.8904049</v>
       </c>
-      <c r="K35" t="n">
-        <v>208609883.1221475</v>
-      </c>
       <c r="L35" t="n">
+        <v>222419520.9600743</v>
+      </c>
+      <c r="M35" t="n">
         <v>47208594.65594903</v>
       </c>
-      <c r="M35" t="n">
+      <c r="N35" t="n">
         <v>99969364.88348347</v>
       </c>
-      <c r="N35" t="n">
+      <c r="O35" t="n">
         <v>85867508.77399926</v>
       </c>
-      <c r="O35" t="n">
+      <c r="P35" t="n">
         <v>41390702.62759003</v>
       </c>
-      <c r="P35" t="n">
+      <c r="Q35" t="n">
         <v>127258211.4015893</v>
       </c>
-      <c r="Q35" t="n">
-        <v>152335814.4676493</v>
-      </c>
       <c r="R35" t="n">
+        <v>44335814.46764934</v>
+      </c>
+      <c r="S35" t="n">
+        <v>108000000</v>
+      </c>
+      <c r="T35" t="n">
         <v>2563907768.735711</v>
       </c>
-      <c r="S35" t="n">
+      <c r="U35" t="n">
         <v>1313855443.616752</v>
       </c>
-      <c r="T35" t="n">
+      <c r="V35" t="n">
         <v>3817746.342047678</v>
       </c>
-      <c r="U35" t="inlineStr">
+      <c r="W35" t="inlineStr">
         <is>
           <t xml:space="preserve">[ABOVE COMMITED AMOUNT] [AMMORTIZATION PERIOD] [POSITIVE CASH] </t>
         </is>
       </c>
-      <c r="V35" t="n">
+      <c r="X35" t="n">
         <v>0.1353446412776653</v>
       </c>
-      <c r="W35" t="n">
+      <c r="Y35" t="n">
         <v>0.006821493365962272</v>
       </c>
-      <c r="X35" t="n">
+      <c r="Z35" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -3230,59 +3444,65 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>100539362.517865</v>
+        <v>100912359.7157848</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>36429286.9801975</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>806053552.8522151</v>
       </c>
-      <c r="K36" t="n">
-        <v>87514643.53291921</v>
-      </c>
       <c r="L36" t="n">
+        <v>101418483.7237438</v>
+      </c>
+      <c r="M36" t="n">
         <v>43209820.06060968</v>
       </c>
-      <c r="M36" t="n">
+      <c r="N36" t="n">
         <v>99265424.12530456</v>
       </c>
-      <c r="N36" t="n">
+      <c r="O36" t="n">
         <v>84863821.43992089</v>
       </c>
-      <c r="O36" t="n">
+      <c r="P36" t="n">
         <v>37654449.08309931</v>
       </c>
-      <c r="P36" t="n">
+      <c r="Q36" t="n">
         <v>122518270.5230202</v>
       </c>
-      <c r="Q36" t="n">
-        <v>152335814.4676493</v>
-      </c>
       <c r="R36" t="n">
+        <v>44335814.46764934</v>
+      </c>
+      <c r="S36" t="n">
+        <v>108000000</v>
+      </c>
+      <c r="T36" t="n">
         <v>2563907768.735711</v>
       </c>
-      <c r="S36" t="n">
+      <c r="U36" t="n">
         <v>1398719265.056673</v>
       </c>
-      <c r="T36" t="n">
+      <c r="V36" t="n">
         <v>3675548.115690606</v>
       </c>
-      <c r="U36" t="inlineStr">
+      <c r="W36" t="inlineStr">
         <is>
           <t xml:space="preserve">[AMMORTIZATION PERIOD] [POSITIVE CASH] </t>
         </is>
       </c>
-      <c r="V36" t="n">
+      <c r="X36" t="n">
         <v>0.1400732722159956</v>
       </c>
-      <c r="W36" t="n">
+      <c r="Y36" t="n">
         <v>0.006821493365962272</v>
       </c>
-      <c r="X36" t="n">
+      <c r="Z36" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -3302,65 +3522,71 @@
         <v>137367844.128384</v>
       </c>
       <c r="E37" t="n">
-        <v>30551317.59560193</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>101136343.0781494</v>
+        <v>101604185.2296923</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>22237421.21641587</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>710635802.8615723</v>
       </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
       <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
         <v>39239203.09559749</v>
       </c>
-      <c r="M37" t="n">
+      <c r="N37" t="n">
         <v>98128641.03278653</v>
       </c>
-      <c r="N37" t="n">
+      <c r="O37" t="n">
         <v>83502499.36399092</v>
       </c>
-      <c r="O37" t="n">
+      <c r="P37" t="n">
         <v>33985391.64806065</v>
       </c>
-      <c r="P37" t="n">
+      <c r="Q37" t="n">
         <v>117487891.0120516</v>
       </c>
-      <c r="Q37" t="n">
-        <v>152335814.4676493</v>
-      </c>
       <c r="R37" t="n">
+        <v>44335814.46764934</v>
+      </c>
+      <c r="S37" t="n">
+        <v>108000000</v>
+      </c>
+      <c r="T37" t="n">
         <v>2563907768.735711</v>
       </c>
-      <c r="S37" t="n">
+      <c r="U37" t="n">
         <v>1482221764.420664</v>
       </c>
-      <c r="T37" t="n">
+      <c r="V37" t="n">
         <v>3524636.730361547</v>
       </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[AMMORTIZATION PERIOD] [POSITIVE CASH] [CASH EARNED CDI] </t>
-        </is>
-      </c>
-      <c r="V37" t="n">
+      <c r="W37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[AMMORTIZATION PERIOD] [POSITIVE CASH] </t>
+        </is>
+      </c>
+      <c r="X37" t="n">
         <v>0.1447205730167289</v>
       </c>
-      <c r="W37" t="n">
+      <c r="Y37" t="n">
         <v>0.006821493365962272</v>
       </c>
-      <c r="X37" t="n">
+      <c r="Z37" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -3386,59 +3612,65 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>101136343.0781494</v>
+        <v>101604185.2296923</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>198362.7032840007</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>617122790.300576</v>
       </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
       <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
         <v>35314057.45428603</v>
       </c>
-      <c r="M38" t="n">
+      <c r="N38" t="n">
         <v>96541701.91255584</v>
       </c>
-      <c r="N38" t="n">
+      <c r="O38" t="n">
         <v>81772126.82519367</v>
       </c>
-      <c r="O38" t="n">
+      <c r="P38" t="n">
         <v>30397585.29155932</v>
       </c>
-      <c r="P38" t="n">
+      <c r="Q38" t="n">
         <v>112169712.116753</v>
       </c>
-      <c r="Q38" t="n">
-        <v>9614784.755294442</v>
-      </c>
       <c r="R38" t="n">
+        <v>44335814.46764934</v>
+      </c>
+      <c r="S38" t="n">
+        <v>18067709.0996629</v>
+      </c>
+      <c r="T38" t="n">
         <v>2563907768.735711</v>
       </c>
-      <c r="S38" t="n">
+      <c r="U38" t="n">
         <v>1563993891.245857</v>
       </c>
-      <c r="T38" t="n">
+      <c r="V38" t="n">
         <v>3365091.363502589</v>
       </c>
-      <c r="U38" t="inlineStr">
+      <c r="W38" t="inlineStr">
         <is>
           <t xml:space="preserve">[AMMORTIZATION PERIOD] [POSITIVE CASH] </t>
         </is>
       </c>
-      <c r="V38" t="n">
+      <c r="X38" t="n">
         <v>0.1492998663434901</v>
       </c>
-      <c r="W38" t="n">
+      <c r="Y38" t="n">
         <v>0.006821493365962272</v>
       </c>
-      <c r="X38" t="n">
+      <c r="Z38" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -3458,13 +3690,13 @@
         <v>125938989.9012877</v>
       </c>
       <c r="E39" t="n">
-        <v>100829651.8630956</v>
+        <v>44108415.10408677</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>101136343.0781494</v>
+        <v>101604185.2296923</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3473,50 +3705,56 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>525858765.4892988</v>
       </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
       <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
         <v>31452389.37778379</v>
       </c>
-      <c r="M39" t="n">
+      <c r="N39" t="n">
         <v>94486600.52350393</v>
       </c>
-      <c r="N39" t="n">
+      <c r="O39" t="n">
         <v>79660947.06041932</v>
       </c>
-      <c r="O39" t="n">
+      <c r="P39" t="n">
         <v>26905426.02477478</v>
       </c>
-      <c r="P39" t="n">
+      <c r="Q39" t="n">
         <v>106566373.0851941</v>
       </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
       <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
         <v>2563907768.735711</v>
       </c>
-      <c r="S39" t="n">
+      <c r="U39" t="n">
         <v>1643654838.306277</v>
       </c>
-      <c r="T39" t="n">
+      <c r="V39" t="n">
         <v>3196991.192555823</v>
       </c>
-      <c r="U39" t="inlineStr">
+      <c r="W39" t="inlineStr">
         <is>
           <t xml:space="preserve">[AMMORTIZATION PERIOD] [POSITIVE CASH] [CASH EARNED CDI] </t>
         </is>
       </c>
-      <c r="V39" t="n">
+      <c r="X39" t="n">
         <v>0.1538254104727859</v>
       </c>
-      <c r="W39" t="n">
+      <c r="Y39" t="n">
         <v>0.006821493365962272</v>
       </c>
-      <c r="X39" t="n">
+      <c r="Z39" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -3536,13 +3774,13 @@
         <v>119617535.7317216</v>
       </c>
       <c r="E40" t="n">
-        <v>209570571.6296818</v>
+        <v>145262929.5440292</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>101136343.0781494</v>
+        <v>101604185.2296923</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3551,50 +3789,56 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>437195897.2689662</v>
       </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
       <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
         <v>27672925.35684363</v>
       </c>
-      <c r="M40" t="n">
+      <c r="N40" t="n">
         <v>91944610.37487797</v>
       </c>
-      <c r="N40" t="n">
+      <c r="O40" t="n">
         <v>77156853.24624977</v>
       </c>
-      <c r="O40" t="n">
+      <c r="P40" t="n">
         <v>23523659.91919478</v>
       </c>
-      <c r="P40" t="n">
+      <c r="Q40" t="n">
         <v>100680513.1654445</v>
       </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
       <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
         <v>2563907768.735711</v>
       </c>
-      <c r="S40" t="n">
+      <c r="U40" t="n">
         <v>1720811691.552526</v>
       </c>
-      <c r="T40" t="n">
+      <c r="V40" t="n">
         <v>3020415.394963336</v>
       </c>
-      <c r="U40" t="inlineStr">
+      <c r="W40" t="inlineStr">
         <is>
           <t xml:space="preserve">[AMMORTIZATION PERIOD] [POSITIVE CASH] [CASH EARNED CDI] </t>
         </is>
       </c>
-      <c r="V40" t="n">
+      <c r="X40" t="n">
         <v>0.1583130972431087</v>
       </c>
-      <c r="W40" t="n">
+      <c r="Y40" t="n">
         <v>0.006821493365962272</v>
       </c>
-      <c r="X40" t="n">
+      <c r="Z40" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -3614,13 +3858,13 @@
         <v>112891396.8581436</v>
       </c>
       <c r="E41" t="n">
-        <v>316248756.964666</v>
+        <v>240562670.9487408</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>101136343.0781494</v>
+        <v>101604185.2296923</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3629,50 +3873,56 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>351492074.0833032</v>
       </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
       <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
         <v>23995140.9418485</v>
       </c>
-      <c r="M41" t="n">
+      <c r="N41" t="n">
         <v>88896255.91629507</v>
       </c>
-      <c r="N41" t="n">
+      <c r="O41" t="n">
         <v>74247379.30495511</v>
       </c>
-      <c r="O41" t="n">
+      <c r="P41" t="n">
         <v>20267392.30061889</v>
       </c>
-      <c r="P41" t="n">
+      <c r="Q41" t="n">
         <v>94514771.605574</v>
       </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
       <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
         <v>2563907768.735711</v>
       </c>
-      <c r="S41" t="n">
+      <c r="U41" t="n">
         <v>1795059070.857481</v>
       </c>
-      <c r="T41" t="n">
+      <c r="V41" t="n">
         <v>2835443.14816722</v>
       </c>
-      <c r="U41" t="inlineStr">
+      <c r="W41" t="inlineStr">
         <is>
           <t xml:space="preserve">[AMMORTIZATION PERIOD] [POSITIVE CASH] [CASH EARNED CDI] </t>
         </is>
       </c>
-      <c r="V41" t="n">
+      <c r="X41" t="n">
         <v>0.1627814498181926</v>
       </c>
-      <c r="W41" t="n">
+      <c r="Y41" t="n">
         <v>0.006821493365962272</v>
       </c>
-      <c r="X41" t="n">
+      <c r="Z41" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -3692,13 +3942,13 @@
         <v>105760573.2805535</v>
       </c>
       <c r="E42" t="n">
-        <v>420493366.4030508</v>
+        <v>329710322.3033209</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>101136343.0781494</v>
+        <v>101604185.2296923</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3707,50 +3957,56 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>269107439.1392367</v>
       </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
       <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
         <v>20439290.7051967</v>
       </c>
-      <c r="M42" t="n">
+      <c r="N42" t="n">
         <v>85321282.57535684</v>
       </c>
-      <c r="N42" t="n">
+      <c r="O42" t="n">
         <v>70919690.53506596</v>
       </c>
-      <c r="O42" t="n">
+      <c r="P42" t="n">
         <v>17152097.11858609</v>
       </c>
-      <c r="P42" t="n">
+      <c r="Q42" t="n">
         <v>88071787.65365206</v>
       </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
       <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
         <v>2563907768.735711</v>
       </c>
-      <c r="S42" t="n">
+      <c r="U42" t="n">
         <v>1865978761.392547</v>
       </c>
-      <c r="T42" t="n">
+      <c r="V42" t="n">
         <v>2642153.629609562</v>
       </c>
-      <c r="U42" t="inlineStr">
+      <c r="W42" t="inlineStr">
         <is>
           <t xml:space="preserve">[AMMORTIZATION PERIOD] [POSITIVE CASH] [CASH EARNED CDI] </t>
         </is>
       </c>
-      <c r="V42" t="n">
+      <c r="X42" t="n">
         <v>0.1672531178511867</v>
       </c>
-      <c r="W42" t="n">
+      <c r="Y42" t="n">
         <v>0.006821493365962272</v>
       </c>
-      <c r="X42" t="n">
+      <c r="Z42" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -3770,13 +4026,13 @@
         <v>98225064.99895158</v>
       </c>
       <c r="E43" t="n">
-        <v>521921469.6392312</v>
+        <v>412410241.1426102</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>101136343.0781494</v>
+        <v>101604185.2296923</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3785,50 +4041,56 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>190398753.6371722</v>
       </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
       <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
         <v>17026439.40218242</v>
       </c>
-      <c r="M43" t="n">
+      <c r="N43" t="n">
         <v>81198625.59676915</v>
       </c>
-      <c r="N43" t="n">
+      <c r="O43" t="n">
         <v>67160574.06719896</v>
       </c>
-      <c r="O43" t="n">
+      <c r="P43" t="n">
         <v>14193626.49054945</v>
       </c>
-      <c r="P43" t="n">
+      <c r="Q43" t="n">
         <v>81354200.55774841</v>
       </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
       <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
         <v>2563907768.735711</v>
       </c>
-      <c r="S43" t="n">
+      <c r="U43" t="n">
         <v>1933139335.459746</v>
       </c>
-      <c r="T43" t="n">
+      <c r="V43" t="n">
         <v>2440626.016732452</v>
       </c>
-      <c r="U43" t="inlineStr">
+      <c r="W43" t="inlineStr">
         <is>
           <t xml:space="preserve">[AMMORTIZATION PERIOD] [POSITIVE CASH] [CASH EARNED CDI] </t>
         </is>
       </c>
-      <c r="V43" t="n">
+      <c r="X43" t="n">
         <v>0.1717572234885592</v>
       </c>
-      <c r="W43" t="n">
+      <c r="Y43" t="n">
         <v>0.006821493365962272</v>
       </c>
-      <c r="X43" t="n">
+      <c r="Z43" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -3848,13 +4110,13 @@
         <v>90284872.01333767</v>
       </c>
       <c r="E44" t="n">
-        <v>620137563.9733704</v>
+        <v>488368465.033231</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>101136343.0781494</v>
+        <v>101604185.2296923</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3863,50 +4125,56 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>115709884.4427876</v>
       </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
       <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
         <v>13778494.37831165</v>
       </c>
-      <c r="M44" t="n">
+      <c r="N44" t="n">
         <v>76506377.63502601</v>
       </c>
-      <c r="N44" t="n">
+      <c r="O44" t="n">
         <v>62956429.14614563</v>
       </c>
-      <c r="O44" t="n">
+      <c r="P44" t="n">
         <v>11408220.41978703</v>
       </c>
-      <c r="P44" t="n">
+      <c r="Q44" t="n">
         <v>74364649.56593268</v>
       </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
       <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
         <v>2563907768.735711</v>
       </c>
-      <c r="S44" t="n">
+      <c r="U44" t="n">
         <v>1996095764.605892</v>
       </c>
-      <c r="T44" t="n">
+      <c r="V44" t="n">
         <v>2230939.48697798</v>
       </c>
-      <c r="U44" t="inlineStr">
+      <c r="W44" t="inlineStr">
         <is>
           <t xml:space="preserve">[AMMORTIZATION PERIOD] [POSITIVE CASH] [CASH EARNED CDI] </t>
         </is>
       </c>
-      <c r="V44" t="n">
+      <c r="X44" t="n">
         <v>0.1763332227469195</v>
       </c>
-      <c r="W44" t="n">
+      <c r="Y44" t="n">
         <v>0.006821493365962272</v>
       </c>
-      <c r="X44" t="n">
+      <c r="Z44" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -3926,13 +4194,13 @@
         <v>81939994.32371178</v>
       </c>
       <c r="E45" t="n">
-        <v>714733071.4156308</v>
+        <v>557292717.0735738</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>101136343.0781494</v>
+        <v>101604185.2296923</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3941,50 +4209,56 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>45355022.76358914</v>
       </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
       <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
         <v>10718239.27291061</v>
       </c>
-      <c r="M45" t="n">
+      <c r="N45" t="n">
         <v>71221755.05080117</v>
       </c>
-      <c r="N45" t="n">
+      <c r="O45" t="n">
         <v>58293257.24059775</v>
       </c>
-      <c r="O45" t="n">
+      <c r="P45" t="n">
         <v>8812516.685676742</v>
       </c>
-      <c r="P45" t="n">
+      <c r="Q45" t="n">
         <v>67105773.92627449</v>
       </c>
-      <c r="Q45" t="n">
-        <v>0</v>
-      </c>
       <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
         <v>2563907768.735711</v>
       </c>
-      <c r="S45" t="n">
+      <c r="U45" t="n">
         <v>2054389021.84649</v>
       </c>
-      <c r="T45" t="n">
+      <c r="V45" t="n">
         <v>2013173.217788235</v>
       </c>
-      <c r="U45" t="inlineStr">
+      <c r="W45" t="inlineStr">
         <is>
           <t xml:space="preserve">[AMMORTIZATION PERIOD] [POSITIVE CASH] [CASH EARNED CDI] </t>
         </is>
       </c>
-      <c r="V45" t="n">
+      <c r="X45" t="n">
         <v>0.181037605870868</v>
       </c>
-      <c r="W45" t="n">
+      <c r="Y45" t="n">
         <v>0.006821493365962272</v>
       </c>
-      <c r="X45" t="n">
+      <c r="Z45" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -4004,13 +4278,13 @@
         <v>73190431.93007393</v>
       </c>
       <c r="E46" t="n">
-        <v>805285815.6745733</v>
+        <v>618892411.4117904</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>101136343.0781494</v>
+        <v>101604185.2296923</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4025,44 +4299,50 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
         <v>7869369.070878552</v>
       </c>
-      <c r="M46" t="n">
+      <c r="N46" t="n">
         <v>65321062.85919537</v>
       </c>
-      <c r="N46" t="n">
+      <c r="O46" t="n">
         <v>53156651.98226742</v>
       </c>
-      <c r="O46" t="n">
+      <c r="P46" t="n">
         <v>6423560.904576089</v>
       </c>
-      <c r="P46" t="n">
+      <c r="Q46" t="n">
         <v>59580212.88684352</v>
       </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
       <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
         <v>2563907768.735711</v>
       </c>
-      <c r="S46" t="n">
+      <c r="U46" t="n">
         <v>2107545673.828757</v>
       </c>
-      <c r="T46" t="n">
+      <c r="V46" t="n">
         <v>1787406.386605305</v>
       </c>
-      <c r="U46" t="inlineStr">
+      <c r="W46" t="inlineStr">
         <is>
           <t xml:space="preserve">[AMMORTIZATION PERIOD] [POSITIVE CASH] [CASH EARNED CDI] </t>
         </is>
       </c>
-      <c r="V46" t="n">
+      <c r="X46" t="n">
         <v>0.1859562607341025</v>
       </c>
-      <c r="W46" t="n">
+      <c r="Y46" t="n">
         <v>0.006821493365962272</v>
       </c>
-      <c r="X46" t="n">
+      <c r="Z46" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -4082,13 +4362,13 @@
         <v>64036184.83242413</v>
       </c>
       <c r="E47" t="n">
-        <v>891359478.225094</v>
+        <v>672878658.7818497</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>101136343.0781494</v>
+        <v>101604185.2296923</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4103,44 +4383,50 @@
         <v>0</v>
       </c>
       <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
         <v>5256526.556510733</v>
       </c>
-      <c r="M47" t="n">
+      <c r="N47" t="n">
         <v>58779658.27591339</v>
       </c>
-      <c r="N47" t="n">
+      <c r="O47" t="n">
         <v>47531788.93657898</v>
       </c>
-      <c r="O47" t="n">
+      <c r="P47" t="n">
         <v>4258816.759130408</v>
       </c>
-      <c r="P47" t="n">
+      <c r="Q47" t="n">
         <v>51790605.69570938</v>
       </c>
-      <c r="Q47" t="n">
-        <v>0</v>
-      </c>
       <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
         <v>2563907768.735711</v>
       </c>
-      <c r="S47" t="n">
+      <c r="U47" t="n">
         <v>2155077462.765336</v>
       </c>
-      <c r="T47" t="n">
+      <c r="V47" t="n">
         <v>1553718.170871282</v>
       </c>
-      <c r="U47" t="inlineStr">
+      <c r="W47" t="inlineStr">
         <is>
           <t xml:space="preserve">[AMMORTIZATION PERIOD] [POSITIVE CASH] [CASH EARNED CDI] </t>
         </is>
       </c>
-      <c r="V47" t="n">
+      <c r="X47" t="n">
         <v>0.191229055396728</v>
       </c>
-      <c r="W47" t="n">
+      <c r="Y47" t="n">
         <v>0.006821493365962272</v>
       </c>
-      <c r="X47" t="n">
+      <c r="Z47" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -4160,13 +4446,13 @@
         <v>54477253.03076237</v>
       </c>
       <c r="E48" t="n">
-        <v>972503032.6190772</v>
+        <v>718964272.0577195</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>101136343.0781494</v>
+        <v>101604185.2296923</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4181,44 +4467,50 @@
         <v>0</v>
       </c>
       <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
         <v>2905340.22547419</v>
       </c>
-      <c r="M48" t="n">
+      <c r="N48" t="n">
         <v>51571912.80528819</v>
       </c>
-      <c r="N48" t="n">
+      <c r="O48" t="n">
         <v>41403415.20755512</v>
       </c>
-      <c r="O48" t="n">
+      <c r="P48" t="n">
         <v>2336176.393386636</v>
       </c>
-      <c r="P48" t="n">
+      <c r="Q48" t="n">
         <v>43739591.60094175</v>
       </c>
-      <c r="Q48" t="n">
-        <v>0</v>
-      </c>
       <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" t="n">
         <v>2563907768.735711</v>
       </c>
-      <c r="S48" t="n">
+      <c r="U48" t="n">
         <v>2196480877.972891</v>
       </c>
-      <c r="T48" t="n">
+      <c r="V48" t="n">
         <v>1312187.748028252</v>
       </c>
-      <c r="U48" t="inlineStr">
+      <c r="W48" t="inlineStr">
         <is>
           <t xml:space="preserve">[AMMORTIZATION PERIOD] [POSITIVE CASH] [CASH EARNED CDI] </t>
         </is>
       </c>
-      <c r="V48" t="n">
+      <c r="X48" t="n">
         <v>0.1971035768590838</v>
       </c>
-      <c r="W48" t="n">
+      <c r="Y48" t="n">
         <v>0.006821493365962272</v>
       </c>
-      <c r="X48" t="n">
+      <c r="Z48" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -4238,13 +4530,13 @@
         <v>21904056.54482915</v>
       </c>
       <c r="E49" t="n">
-        <v>1029627328.969138</v>
+        <v>738898585.7780397</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>101136343.0781494</v>
+        <v>101604185.2296923</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4259,44 +4551,50 @@
         <v>0</v>
       </c>
       <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
         <v>842463.7132626581</v>
       </c>
-      <c r="M49" t="n">
+      <c r="N49" t="n">
         <v>21061592.83156648</v>
       </c>
-      <c r="N49" t="n">
+      <c r="O49" t="n">
         <v>16849274.26525319</v>
       </c>
-      <c r="O49" t="n">
+      <c r="P49" t="n">
         <v>673970.9706101265</v>
       </c>
-      <c r="P49" t="n">
+      <c r="Q49" t="n">
         <v>17523245.23586331</v>
       </c>
-      <c r="Q49" t="n">
-        <v>0</v>
-      </c>
       <c r="R49" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" t="n">
         <v>2563907768.735711</v>
       </c>
-      <c r="S49" t="n">
+      <c r="U49" t="n">
         <v>2213330152.238144</v>
       </c>
-      <c r="T49" t="n">
+      <c r="V49" t="n">
         <v>525697.3570758994</v>
       </c>
-      <c r="U49" t="inlineStr">
+      <c r="W49" t="inlineStr">
         <is>
           <t xml:space="preserve">[AMMORTIZATION PERIOD] [POSITIVE CASH] [CASH EARNED CDI] </t>
         </is>
       </c>
-      <c r="V49" t="n">
+      <c r="X49" t="n">
         <v>0.2000000000000002</v>
       </c>
-      <c r="W49" t="n">
+      <c r="Y49" t="n">
         <v>0.006821493365962272</v>
       </c>
-      <c r="X49" t="n">
+      <c r="Z49" t="n">
         <v>0.75</v>
       </c>
     </row>

--- a/df.xlsx
+++ b/df.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z49"/>
+  <dimension ref="A1:AC49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,6 +565,21 @@
           <t>current_ar</t>
         </is>
       </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>borrower_change</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>lender_change</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>mezz_change</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -649,6 +664,9 @@
       <c r="Z2" t="n">
         <v>0.65</v>
       </c>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -733,6 +751,15 @@
       <c r="Z3" t="n">
         <v>0.65</v>
       </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>9524037.260355143</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8298566.211019479</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -817,6 +844,15 @@
       <c r="Z4" t="n">
         <v>0.65</v>
       </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>12898870.34813935</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>9774442.048500605</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -901,6 +937,15 @@
       <c r="Z5" t="n">
         <v>0.65</v>
       </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>16138029.51495863</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>12490811.01402155</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -985,6 +1030,15 @@
       <c r="Z6" t="n">
         <v>0.65</v>
       </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>19237935.68518406</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>13537018.50118821</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1005,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>-14317259.53416658</v>
       </c>
       <c r="G7" t="n">
         <v>1019097.361916769</v>
       </c>
       <c r="H7" t="n">
-        <v>2399462.23774183</v>
+        <v>2242275.164984006</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1041,10 +1095,10 @@
         <v>9388260.426491495</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>14317259.53416658</v>
       </c>
       <c r="S7" t="n">
-        <v>68317259.53416657</v>
+        <v>54000000</v>
       </c>
       <c r="T7" t="n">
         <v>152553191.4893617</v>
@@ -1057,7 +1111,7 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t xml:space="preserve">[BELOW MIN UTIL LEVEL] [NEGATIVE CASH] [MEZZ TAPPED] </t>
+          <t xml:space="preserve">[BELOW MIN UTIL LEVEL] [NEGATIVE CASH] [MEZZ TAPPED] [MARGIN CALL] </t>
         </is>
       </c>
       <c r="X7" t="n">
@@ -1068,6 +1122,15 @@
       </c>
       <c r="Z7" t="n">
         <v>0.65</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>14317259.53416658</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>22194898.68527111</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>59238.43947521597</v>
       </c>
     </row>
     <row r="8">
@@ -1089,13 +1152,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>-15500773.41156343</v>
       </c>
       <c r="G8" t="n">
         <v>1572493.263963448</v>
       </c>
       <c r="H8" t="n">
-        <v>3319688.01220776</v>
+        <v>2835133.170293372</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1125,10 +1188,10 @@
         <v>12252785.00378034</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>29818032.94573001</v>
       </c>
       <c r="S8" t="n">
-        <v>83818032.94573</v>
+        <v>54000000</v>
       </c>
       <c r="T8" t="n">
         <v>199574468.0851064</v>
@@ -1141,7 +1204,7 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t xml:space="preserve">[BELOW MIN UTIL LEVEL] [NEGATIVE CASH] [MEZZ TAPPED] </t>
+          <t xml:space="preserve">[BELOW MIN UTIL LEVEL] [NEGATIVE CASH] [MARGIN CALL] </t>
         </is>
       </c>
       <c r="X8" t="n">
@@ -1152,6 +1215,15 @@
       </c>
       <c r="Z8" t="n">
         <v>0.65</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>15500773.41156343</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>25005114.0824476</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1173,13 +1245,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>-15943461.81298766</v>
       </c>
       <c r="G9" t="n">
         <v>2286772.822920666</v>
       </c>
       <c r="H9" t="n">
-        <v>4414954.693491726</v>
+        <v>3427991.175602739</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1209,10 +1281,10 @@
         <v>15481647.15941877</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>45761494.75871766</v>
       </c>
       <c r="S9" t="n">
-        <v>99761494.75871766</v>
+        <v>54000000</v>
       </c>
       <c r="T9" t="n">
         <v>252765957.4468085</v>
@@ -1225,7 +1297,7 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t xml:space="preserve">[BELOW MIN UTIL LEVEL] [NEGATIVE CASH] [MEZZ TAPPED] </t>
+          <t xml:space="preserve">[BELOW MIN UTIL LEVEL] [NEGATIVE CASH] [MARGIN CALL] </t>
         </is>
       </c>
       <c r="X9" t="n">
@@ -1236,6 +1308,15 @@
       </c>
       <c r="Z9" t="n">
         <v>0.65</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>15943461.81298766</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>27664659.94825293</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1257,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-6661770.509111762</v>
+        <v>-14900275.75039411</v>
       </c>
       <c r="G10" t="n">
         <v>3179047.636967949</v>
       </c>
       <c r="H10" t="n">
-        <v>5600670.704110458</v>
+        <v>4020849.180912105</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1293,10 +1374,10 @@
         <v>19072207.64533716</v>
       </c>
       <c r="R10" t="n">
-        <v>6661770.509111762</v>
+        <v>60661770.50911177</v>
       </c>
       <c r="S10" t="n">
-        <v>108000000</v>
+        <v>54000000</v>
       </c>
       <c r="T10" t="n">
         <v>312127659.5744681</v>
@@ -1309,7 +1390,7 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t xml:space="preserve">[BELOW MIN UTIL LEVEL] [NEGATIVE CASH] [MEZZ TAPPED] [MARGIN CALL] </t>
+          <t xml:space="preserve">[BELOW MIN UTIL LEVEL] [NEGATIVE CASH] [MARGIN CALL] </t>
         </is>
       </c>
       <c r="X10" t="n">
@@ -1320,6 +1401,15 @@
       </c>
       <c r="Z10" t="n">
         <v>0.65</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>14900275.75039411</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>30169493.5459756</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1347,7 +1437,7 @@
         <v>4265433.880893593</v>
       </c>
       <c r="H11" t="n">
-        <v>6786386.714729192</v>
+        <v>4613707.186221472</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1377,10 +1467,10 @@
         <v>23021827.21346585</v>
       </c>
       <c r="R11" t="n">
-        <v>6661770.509111762</v>
+        <v>60661770.50911177</v>
       </c>
       <c r="S11" t="n">
-        <v>108000000</v>
+        <v>54000000</v>
       </c>
       <c r="T11" t="n">
         <v>377659574.4680851</v>
@@ -1404,6 +1494,15 @@
       </c>
       <c r="Z11" t="n">
         <v>0.7</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>47484473.92407683</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1431,7 +1530,7 @@
         <v>5657336.65980442</v>
       </c>
       <c r="H12" t="n">
-        <v>7972102.725347925</v>
+        <v>5206565.191530839</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1461,10 +1560,10 @@
         <v>27327866.61573522</v>
       </c>
       <c r="R12" t="n">
-        <v>14539984.33019322</v>
+        <v>68539984.33019322</v>
       </c>
       <c r="S12" t="n">
-        <v>108000000</v>
+        <v>54000000</v>
       </c>
       <c r="T12" t="n">
         <v>449361702.1276596</v>
@@ -1488,6 +1587,15 @@
       </c>
       <c r="Z12" t="n">
         <v>0.7</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>7878213.821081452</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>37887950.00166863</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1515,7 +1623,7 @@
         <v>7293011.649832287</v>
       </c>
       <c r="H13" t="n">
-        <v>9157818.735966658</v>
+        <v>5799423.196840205</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1545,10 +1653,10 @@
         <v>31987686.6040756</v>
       </c>
       <c r="R13" t="n">
-        <v>22522795.20482963</v>
+        <v>76522795.20482963</v>
       </c>
       <c r="S13" t="n">
-        <v>108000000</v>
+        <v>54000000</v>
       </c>
       <c r="T13" t="n">
         <v>527234042.5531915</v>
@@ -1572,6 +1680,15 @@
       </c>
       <c r="Z13" t="n">
         <v>0.7</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>7982810.874636412</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>39537517.93684775</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1599,7 +1716,7 @@
         <v>9183072.220740633</v>
       </c>
       <c r="H14" t="n">
-        <v>10343534.74658539</v>
+        <v>6392281.202149572</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1629,10 +1746,10 @@
         <v>36998647.93041737</v>
       </c>
       <c r="R14" t="n">
-        <v>29934451.55832386</v>
+        <v>83934451.55832386</v>
       </c>
       <c r="S14" t="n">
-        <v>108000000</v>
+        <v>54000000</v>
       </c>
       <c r="T14" t="n">
         <v>611276595.7446809</v>
@@ -1656,6 +1773,15 @@
       </c>
       <c r="Z14" t="n">
         <v>0.7</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>7411656.353494227</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>41522309.47848612</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1809,7 @@
         <v>11340288.58107044</v>
       </c>
       <c r="H15" t="n">
-        <v>11529250.75720412</v>
+        <v>6985139.207458938</v>
       </c>
       <c r="I15" t="n">
         <v>902127.6595744682</v>
@@ -1713,10 +1839,10 @@
         <v>42358111.34669087</v>
       </c>
       <c r="R15" t="n">
-        <v>37531813.19470388</v>
+        <v>91531813.19470388</v>
       </c>
       <c r="S15" t="n">
-        <v>108000000</v>
+        <v>54000000</v>
       </c>
       <c r="T15" t="n">
         <v>701489361.7021277</v>
@@ -1740,6 +1866,15 @@
       </c>
       <c r="Z15" t="n">
         <v>0.7</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>7597361.636380017</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>43316636.99428016</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1767,7 +1902,7 @@
         <v>13776205.48808553</v>
       </c>
       <c r="H16" t="n">
-        <v>12714966.76782286</v>
+        <v>7577997.212768305</v>
       </c>
       <c r="I16" t="n">
         <v>963829.7872340427</v>
@@ -1797,10 +1932,10 @@
         <v>48063437.60482647</v>
       </c>
       <c r="R16" t="n">
-        <v>44335814.46764934</v>
+        <v>98335814.46764934</v>
       </c>
       <c r="S16" t="n">
-        <v>108000000</v>
+        <v>54000000</v>
       </c>
       <c r="T16" t="n">
         <v>797872340.425532</v>
@@ -1824,6 +1959,15 @@
       </c>
       <c r="Z16" t="n">
         <v>0.7</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>6804001.272945464</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>44915286.53988147</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1851,7 +1995,7 @@
         <v>16501108.70109766</v>
       </c>
       <c r="H17" t="n">
-        <v>13900682.77844159</v>
+        <v>8170855.218077672</v>
       </c>
       <c r="I17" t="n">
         <v>1025531.914893617</v>
@@ -1881,10 +2025,10 @@
         <v>54111987.45675451</v>
       </c>
       <c r="R17" t="n">
-        <v>44335814.46764934</v>
+        <v>98335814.46764934</v>
       </c>
       <c r="S17" t="n">
-        <v>108000000</v>
+        <v>54000000</v>
       </c>
       <c r="T17" t="n">
         <v>900425531.9148936</v>
@@ -1908,6 +2052,15 @@
       </c>
       <c r="Z17" t="n">
         <v>0.75</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>52191639.16051292</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1935,7 +2088,7 @@
         <v>19561814.49195896</v>
       </c>
       <c r="H18" t="n">
-        <v>15086398.78906032</v>
+        <v>8763713.223387038</v>
       </c>
       <c r="I18" t="n">
         <v>1087234.042553192</v>
@@ -1965,10 +2118,10 @@
         <v>60501121.65440537</v>
       </c>
       <c r="R18" t="n">
-        <v>44335814.46764934</v>
+        <v>98335814.46764934</v>
       </c>
       <c r="S18" t="n">
-        <v>108000000</v>
+        <v>54000000</v>
       </c>
       <c r="T18" t="n">
         <v>1009148936.170213</v>
@@ -1992,6 +2145,15 @@
       </c>
       <c r="Z18" t="n">
         <v>0.75</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>52370222.43432826</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2019,7 +2181,7 @@
         <v>22959471.8708303</v>
       </c>
       <c r="H19" t="n">
-        <v>16272114.79967906</v>
+        <v>9356571.228696404</v>
       </c>
       <c r="I19" t="n">
         <v>1148936.170212766</v>
@@ -2049,10 +2211,10 @@
         <v>67228200.94970939</v>
       </c>
       <c r="R19" t="n">
-        <v>44335814.46764934</v>
+        <v>98335814.46764934</v>
       </c>
       <c r="S19" t="n">
-        <v>108000000</v>
+        <v>54000000</v>
       </c>
       <c r="T19" t="n">
         <v>1124042553.191489</v>
@@ -2076,6 +2238,15 @@
       </c>
       <c r="Z19" t="n">
         <v>0.75</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>52212009.6206513</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2103,7 +2274,7 @@
         <v>26693062.8917047</v>
       </c>
       <c r="H20" t="n">
-        <v>17457830.81029779</v>
+        <v>9949429.23400577</v>
       </c>
       <c r="I20" t="n">
         <v>1210638.29787234</v>
@@ -2133,10 +2304,10 @@
         <v>74290586.09459694</v>
       </c>
       <c r="R20" t="n">
-        <v>44335814.46764934</v>
+        <v>98335814.46764934</v>
       </c>
       <c r="S20" t="n">
-        <v>108000000</v>
+        <v>54000000</v>
       </c>
       <c r="T20" t="n">
         <v>1245106382.978723</v>
@@ -2160,6 +2331,15 @@
       </c>
       <c r="Z20" t="n">
         <v>0.75</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>51717473.01138377</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2187,7 +2367,7 @@
         <v>30759405.69114764</v>
       </c>
       <c r="H21" t="n">
-        <v>18643546.82091652</v>
+        <v>10542287.23931514</v>
       </c>
       <c r="I21" t="n">
         <v>1272340.425531915</v>
@@ -2217,10 +2397,10 @@
         <v>81685637.84099834</v>
       </c>
       <c r="R21" t="n">
-        <v>44335814.46764934</v>
+        <v>98335814.46764934</v>
       </c>
       <c r="S21" t="n">
-        <v>108000000</v>
+        <v>54000000</v>
       </c>
       <c r="T21" t="n">
         <v>1372340425.531915</v>
@@ -2244,6 +2424,15 @@
       </c>
       <c r="Z21" t="n">
         <v>0.75</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>50887087.93716788</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2271,7 +2460,7 @@
         <v>35153157.5465887</v>
       </c>
       <c r="H22" t="n">
-        <v>19829262.83153525</v>
+        <v>11135145.2446245</v>
       </c>
       <c r="I22" t="n">
         <v>1334042.553191489</v>
@@ -2301,10 +2490,10 @@
         <v>89410716.94084398</v>
       </c>
       <c r="R22" t="n">
-        <v>44335814.46764934</v>
+        <v>98335814.46764934</v>
       </c>
       <c r="S22" t="n">
-        <v>108000000</v>
+        <v>54000000</v>
       </c>
       <c r="T22" t="n">
         <v>1505744680.851064</v>
@@ -2328,6 +2517,15 @@
       </c>
       <c r="Z22" t="n">
         <v>0.75</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>49721332.78693759</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2355,7 +2553,7 @@
         <v>39866817.95429043</v>
       </c>
       <c r="H23" t="n">
-        <v>21014978.84215399</v>
+        <v>11728003.24993387</v>
       </c>
       <c r="I23" t="n">
         <v>1395744.680851064</v>
@@ -2385,10 +2583,10 @@
         <v>97463184.14606424</v>
       </c>
       <c r="R23" t="n">
-        <v>44335814.46764934</v>
+        <v>98335814.46764934</v>
       </c>
       <c r="S23" t="n">
-        <v>108000000</v>
+        <v>54000000</v>
       </c>
       <c r="T23" t="n">
         <v>1645319148.93617</v>
@@ -2412,6 +2610,15 @@
       </c>
       <c r="Z23" t="n">
         <v>0.75</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>48220689.02759492</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2439,7 +2646,7 @@
         <v>44890731.72712081</v>
       </c>
       <c r="H24" t="n">
-        <v>22200694.85277272</v>
+        <v>12320861.25524323</v>
       </c>
       <c r="I24" t="n">
         <v>1457446.808510638</v>
@@ -2469,10 +2676,10 @@
         <v>105840400.2085894</v>
       </c>
       <c r="R24" t="n">
-        <v>44335814.46764934</v>
+        <v>98335814.46764934</v>
       </c>
       <c r="S24" t="n">
-        <v>108000000</v>
+        <v>54000000</v>
       </c>
       <c r="T24" t="n">
         <v>1791063829.787234</v>
@@ -2496,6 +2703,15 @@
       </c>
       <c r="Z24" t="n">
         <v>0.75</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>46385641.22381544</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2523,7 +2739,7 @@
         <v>50213092.11225703</v>
       </c>
       <c r="H25" t="n">
-        <v>23386410.86339145</v>
+        <v>12913719.2605526</v>
       </c>
       <c r="I25" t="n">
         <v>1447796.895353063</v>
@@ -2553,10 +2769,10 @@
         <v>114095149.2250011</v>
       </c>
       <c r="R25" t="n">
-        <v>44335814.46764934</v>
+        <v>98335814.46764934</v>
       </c>
       <c r="S25" t="n">
-        <v>108000000</v>
+        <v>54000000</v>
       </c>
       <c r="T25" t="n">
         <v>1935843519.32254</v>
@@ -2580,6 +2796,15 @@
       </c>
       <c r="Z25" t="n">
         <v>0.75</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>37454697.59079456</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2607,7 +2832,7 @@
         <v>55776437.14945351</v>
       </c>
       <c r="H26" t="n">
-        <v>24572126.87401018</v>
+        <v>13506577.26586196</v>
       </c>
       <c r="I26" t="n">
         <v>1073249.919445118</v>
@@ -2637,10 +2862,10 @@
         <v>119433844.7116597</v>
       </c>
       <c r="R26" t="n">
-        <v>44335814.46764934</v>
+        <v>98335814.46764934</v>
       </c>
       <c r="S26" t="n">
-        <v>108000000</v>
+        <v>54000000</v>
       </c>
       <c r="T26" t="n">
         <v>2043168511.267052</v>
@@ -2664,6 +2889,15 @@
       </c>
       <c r="Z26" t="n">
         <v>0.75</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>1073249.919445157</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2691,7 +2925,7 @@
         <v>61346687.50894725</v>
       </c>
       <c r="H27" t="n">
-        <v>25757842.88462891</v>
+        <v>14099435.27117133</v>
       </c>
       <c r="I27" t="n">
         <v>1062517.420250666</v>
@@ -2721,10 +2955,10 @@
         <v>124707520.5463001</v>
       </c>
       <c r="R27" t="n">
-        <v>44335814.46764934</v>
+        <v>98335814.46764934</v>
       </c>
       <c r="S27" t="n">
-        <v>108000000</v>
+        <v>54000000</v>
       </c>
       <c r="T27" t="n">
         <v>2149420253.292119</v>
@@ -2748,6 +2982,15 @@
       </c>
       <c r="Z27" t="n">
         <v>0.75</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>1062517.420250654</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2775,7 +3018,7 @@
         <v>66923774.13751528</v>
       </c>
       <c r="H28" t="n">
-        <v>26943558.89524764</v>
+        <v>14692293.2764807</v>
       </c>
       <c r="I28" t="n">
         <v>1051892.24604816</v>
@@ -2805,10 +3048,10 @@
         <v>129544638.0048965</v>
       </c>
       <c r="R28" t="n">
-        <v>44335814.46764934</v>
+        <v>98335814.46764934</v>
       </c>
       <c r="S28" t="n">
-        <v>108000000</v>
+        <v>54000000</v>
       </c>
       <c r="T28" t="n">
         <v>2254609477.896935</v>
@@ -2832,6 +3075,15 @@
       </c>
       <c r="Z28" t="n">
         <v>0.75</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>1051892.246048212</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2859,7 +3111,7 @@
         <v>72507628.67246687</v>
       </c>
       <c r="H29" t="n">
-        <v>28129274.90586637</v>
+        <v>15285151.28179006</v>
       </c>
       <c r="I29" t="n">
         <v>1041373.323587678</v>
@@ -2889,10 +3141,10 @@
         <v>134382666.2209496</v>
       </c>
       <c r="R29" t="n">
-        <v>44335814.46764934</v>
+        <v>98335814.46764934</v>
       </c>
       <c r="S29" t="n">
-        <v>108000000</v>
+        <v>54000000</v>
       </c>
       <c r="T29" t="n">
         <v>2358746810.255703</v>
@@ -2916,6 +3168,15 @@
       </c>
       <c r="Z29" t="n">
         <v>0.75</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1041373.323587656</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2943,7 +3204,7 @@
         <v>78098183.43473817</v>
       </c>
       <c r="H30" t="n">
-        <v>29314990.9164851</v>
+        <v>15878009.28709943</v>
       </c>
       <c r="I30" t="n">
         <v>1030959.590351801</v>
@@ -2973,10 +3234,10 @@
         <v>138778492.0325296</v>
       </c>
       <c r="R30" t="n">
-        <v>44335814.46764934</v>
+        <v>98335814.46764934</v>
       </c>
       <c r="S30" t="n">
-        <v>108000000</v>
+        <v>54000000</v>
       </c>
       <c r="T30" t="n">
         <v>2461842769.290883</v>
@@ -3000,6 +3261,15 @@
       </c>
       <c r="Z30" t="n">
         <v>0.75</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>1030959.59035182</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3027,7 +3297,7 @@
         <v>83695371.422056</v>
       </c>
       <c r="H31" t="n">
-        <v>30500706.92710384</v>
+        <v>16470867.29240879</v>
       </c>
       <c r="I31" t="n">
         <v>1020649.994448283</v>
@@ -3057,10 +3327,10 @@
         <v>143260803.6304767</v>
       </c>
       <c r="R31" t="n">
-        <v>44335814.46764934</v>
+        <v>98335814.46764934</v>
       </c>
       <c r="S31" t="n">
-        <v>108000000</v>
+        <v>54000000</v>
       </c>
       <c r="T31" t="n">
         <v>2563907768.735711</v>
@@ -3084,6 +3354,15 @@
       </c>
       <c r="Z31" t="n">
         <v>0.75</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>1020649.994448304</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3111,7 +3390,7 @@
         <v>89636589.61432759</v>
       </c>
       <c r="H32" t="n">
-        <v>31686422.93772257</v>
+        <v>17063725.29771816</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3141,10 +3420,10 @@
         <v>139709009.7622025</v>
       </c>
       <c r="R32" t="n">
-        <v>44335814.46764934</v>
+        <v>98335814.46764934</v>
       </c>
       <c r="S32" t="n">
-        <v>108000000</v>
+        <v>54000000</v>
       </c>
       <c r="T32" t="n">
         <v>2563907768.735711</v>
@@ -3168,6 +3447,15 @@
       </c>
       <c r="Z32" t="n">
         <v>0.75</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>-263475160.3337849</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3195,7 +3483,7 @@
         <v>93780513.74828643</v>
       </c>
       <c r="H33" t="n">
-        <v>32872138.9483413</v>
+        <v>17656583.30302753</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3225,10 +3513,10 @@
         <v>135856220.26925</v>
       </c>
       <c r="R33" t="n">
-        <v>44335814.46764934</v>
+        <v>98335814.46764934</v>
       </c>
       <c r="S33" t="n">
-        <v>108000000</v>
+        <v>54000000</v>
       </c>
       <c r="T33" t="n">
         <v>2563907768.735711</v>
@@ -3252,6 +3540,15 @@
       </c>
       <c r="Z33" t="n">
         <v>0.75</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>-131712296.1352912</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3279,7 +3576,7 @@
         <v>97025963.32794271</v>
       </c>
       <c r="H34" t="n">
-        <v>34057854.95896003</v>
+        <v>18249441.30833689</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3309,10 +3606,10 @@
         <v>131705074.3996891</v>
       </c>
       <c r="R34" t="n">
-        <v>44335814.46764934</v>
+        <v>98335814.46764934</v>
       </c>
       <c r="S34" t="n">
-        <v>108000000</v>
+        <v>54000000</v>
       </c>
       <c r="T34" t="n">
         <v>2563907768.735711</v>
@@ -3336,6 +3633,15 @@
       </c>
       <c r="Z34" t="n">
         <v>0.75</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>-128459624.8200328</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3363,7 +3669,7 @@
         <v>99395126.42909513</v>
       </c>
       <c r="H35" t="n">
-        <v>35243570.96957877</v>
+        <v>18842299.31364626</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3393,10 +3699,10 @@
         <v>127258211.4015893</v>
       </c>
       <c r="R35" t="n">
-        <v>44335814.46764934</v>
+        <v>98335814.46764934</v>
       </c>
       <c r="S35" t="n">
-        <v>108000000</v>
+        <v>54000000</v>
       </c>
       <c r="T35" t="n">
         <v>2563907768.735711</v>
@@ -3420,6 +3726,15 @@
       </c>
       <c r="Z35" t="n">
         <v>0.75</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>-124889048.3004369</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3447,7 +3762,7 @@
         <v>100912359.7157848</v>
       </c>
       <c r="H36" t="n">
-        <v>36429286.9801975</v>
+        <v>19435157.31895562</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3477,10 +3792,10 @@
         <v>122518270.5230202</v>
       </c>
       <c r="R36" t="n">
-        <v>44335814.46764934</v>
+        <v>98335814.46764934</v>
       </c>
       <c r="S36" t="n">
-        <v>108000000</v>
+        <v>54000000</v>
       </c>
       <c r="T36" t="n">
         <v>2563907768.735711</v>
@@ -3504,6 +3819,15 @@
       </c>
       <c r="Z36" t="n">
         <v>0.75</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>-121001037.2363306</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3531,7 +3855,7 @@
         <v>101604185.2296923</v>
       </c>
       <c r="H37" t="n">
-        <v>22237421.21641587</v>
+        <v>4650433.549864636</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3561,10 +3885,10 @@
         <v>117487891.0120516</v>
       </c>
       <c r="R37" t="n">
-        <v>44335814.46764934</v>
+        <v>98335814.46764934</v>
       </c>
       <c r="S37" t="n">
-        <v>108000000</v>
+        <v>54000000</v>
       </c>
       <c r="T37" t="n">
         <v>2563907768.735711</v>
@@ -3588,6 +3912,15 @@
       </c>
       <c r="Z37" t="n">
         <v>0.75</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>-101418483.7237438</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3615,7 +3948,7 @@
         <v>101604185.2296923</v>
       </c>
       <c r="H38" t="n">
-        <v>198362.7032840007</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3645,10 +3978,10 @@
         <v>112169712.116753</v>
       </c>
       <c r="R38" t="n">
-        <v>44335814.46764934</v>
+        <v>44816535.90076101</v>
       </c>
       <c r="S38" t="n">
-        <v>18067709.0996629</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>2563907768.735711</v>
@@ -3672,6 +4005,15 @@
       </c>
       <c r="Z38" t="n">
         <v>0.75</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>-53519278.56688833</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>-54000000</v>
       </c>
     </row>
     <row r="39">
@@ -3690,7 +4032,7 @@
         <v>125938989.9012877</v>
       </c>
       <c r="E39" t="n">
-        <v>44108415.10408677</v>
+        <v>61951990.08296807</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3756,6 +4098,15 @@
       </c>
       <c r="Z39" t="n">
         <v>0.75</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>-44816535.90076101</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3774,7 +4125,7 @@
         <v>119617535.7317216</v>
       </c>
       <c r="E40" t="n">
-        <v>145262929.5440292</v>
+        <v>163164919.7441755</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3840,6 +4191,15 @@
       </c>
       <c r="Z40" t="n">
         <v>0.75</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3858,7 +4218,7 @@
         <v>112891396.8581436</v>
       </c>
       <c r="E41" t="n">
-        <v>240562670.9487408</v>
+        <v>258523267.6063859</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3924,6 +4284,15 @@
       </c>
       <c r="Z41" t="n">
         <v>0.75</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3942,7 +4311,7 @@
         <v>105760573.2805535</v>
       </c>
       <c r="E42" t="n">
-        <v>329710322.3033209</v>
+        <v>347729717.2807562</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -4008,6 +4377,15 @@
       </c>
       <c r="Z42" t="n">
         <v>0.75</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -4026,7 +4404,7 @@
         <v>98225064.99895158</v>
       </c>
       <c r="E43" t="n">
-        <v>412410241.1426102</v>
+        <v>430488626.9302343</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -4092,6 +4470,15 @@
       </c>
       <c r="Z43" t="n">
         <v>0.75</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4110,7 +4497,7 @@
         <v>90284872.01333767</v>
       </c>
       <c r="E44" t="n">
-        <v>488368465.033231</v>
+        <v>506506034.7516059</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -4176,6 +4563,15 @@
       </c>
       <c r="Z44" t="n">
         <v>0.75</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4194,7 +4590,7 @@
         <v>81939994.32371178</v>
       </c>
       <c r="E45" t="n">
-        <v>557292717.0735738</v>
+        <v>575489664.4754883</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4260,6 +4656,15 @@
       </c>
       <c r="Z45" t="n">
         <v>0.75</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4278,7 +4683,7 @@
         <v>73190431.93007393</v>
       </c>
       <c r="E46" t="n">
-        <v>618892411.4117904</v>
+        <v>637148930.8843291</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4344,6 +4749,15 @@
       </c>
       <c r="Z46" t="n">
         <v>0.75</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -4362,7 +4776,7 @@
         <v>64036184.83242413</v>
       </c>
       <c r="E47" t="n">
-        <v>672878658.7818497</v>
+        <v>691194945.3484702</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
@@ -4428,6 +4842,15 @@
       </c>
       <c r="Z47" t="n">
         <v>0.75</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -4446,7 +4869,7 @@
         <v>54477253.03076237</v>
       </c>
       <c r="E48" t="n">
-        <v>718964272.0577195</v>
+        <v>737340521.3803352</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
@@ -4512,6 +4935,15 @@
       </c>
       <c r="Z48" t="n">
         <v>0.75</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -4530,7 +4962,7 @@
         <v>21904056.54482915</v>
       </c>
       <c r="E49" t="n">
-        <v>738898585.7780397</v>
+        <v>757334994.1591105</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
@@ -4596,6 +5028,15 @@
       </c>
       <c r="Z49" t="n">
         <v>0.75</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
